--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9416,21 +9416,20 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="104" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="109" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="109" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="106" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9440,13 +9439,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
@@ -5750,7 +5750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6890,6 +6890,12 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7419,36 +7425,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="5.77734375" customWidth="true"/>
-    <col min="27" max="27" width="25.0" customWidth="true"/>
-    <col min="28" max="28" width="25.0" customWidth="true"/>
-    <col min="29" max="29" width="25.0" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9452,23 +9458,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10048,23 +10054,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10651,23 +10657,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11245,23 +11251,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11847,23 +11853,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12471,23 +12477,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13080,23 +13086,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13254,8 +13260,12 @@
       <c r="B16" s="199" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="E16" s="200"/>
+      <c r="C16" s="495" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="495" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="197" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13265,8 +13275,12 @@
       <c r="B17" s="199" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="200"/>
-      <c r="E17" s="200"/>
+      <c r="C17" s="495" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E17" s="495" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G17" s="197" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -13701,23 +13715,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14312,23 +14326,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14932,23 +14946,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15532,23 +15546,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16135,23 +16149,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Palobiofarma, S.L Pamplona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ED7227-F3BA-4AAF-AC2C-9F3213C77FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6598C6-1BEA-4113-82C8-83C4671900B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14148" yWindow="-96" windowWidth="17280" windowHeight="9060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="116">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>31/10/2022</t>
-  </si>
-  <si>
-    <t>7.9999999999999964</t>
   </si>
 </sst>
 </file>
@@ -5512,6 +5509,30 @@
     <xf numFmtId="0" fontId="491" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="16" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5521,24 +5542,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5826,15 +5832,6 @@
     </xf>
     <xf numFmtId="14" fontId="475" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="16" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6760,15 +6757,15 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="387" t="s">
+      <c r="G1" s="395" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
-      <c r="J1" s="387"/>
-      <c r="K1" s="387"/>
-      <c r="L1" s="387"/>
-      <c r="M1" s="387"/>
+      <c r="H1" s="395"/>
+      <c r="I1" s="395"/>
+      <c r="J1" s="395"/>
+      <c r="K1" s="395"/>
+      <c r="L1" s="395"/>
+      <c r="M1" s="395"/>
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6777,29 +6774,29 @@
     <row r="3" spans="2:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="388" t="s">
+      <c r="D3" s="396" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
+      <c r="E3" s="397"/>
+      <c r="F3" s="397"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
       <c r="J3" s="7"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="390" t="s">
+      <c r="L3" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="391"/>
-      <c r="N3" s="391"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
       <c r="O3" s="8"/>
       <c r="P3" s="9"/>
       <c r="R3" s="7"/>
       <c r="S3" s="8"/>
-      <c r="T3" s="390" t="s">
+      <c r="T3" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="391"/>
-      <c r="V3" s="391"/>
+      <c r="U3" s="398"/>
+      <c r="V3" s="398"/>
       <c r="W3" s="8"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="10" t="s">
@@ -7265,29 +7262,29 @@
     <row r="13" spans="2:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="390" t="s">
+      <c r="D13" s="393" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="392"/>
-      <c r="F13" s="392"/>
+      <c r="E13" s="394"/>
+      <c r="F13" s="394"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="J13" s="61"/>
       <c r="K13" s="62"/>
-      <c r="L13" s="390" t="s">
+      <c r="L13" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="392"/>
-      <c r="N13" s="392"/>
+      <c r="M13" s="394"/>
+      <c r="N13" s="394"/>
       <c r="O13" s="62"/>
       <c r="P13" s="63"/>
       <c r="R13" s="7"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="390" t="s">
+      <c r="T13" s="393" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="392"/>
-      <c r="V13" s="392"/>
+      <c r="U13" s="394"/>
+      <c r="V13" s="394"/>
       <c r="W13" s="8"/>
       <c r="X13" s="9"/>
     </row>
@@ -7738,29 +7735,29 @@
     <row r="23" spans="2:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="390" t="s">
+      <c r="D23" s="393" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="392"/>
-      <c r="F23" s="392"/>
+      <c r="E23" s="394"/>
+      <c r="F23" s="394"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="J23" s="7"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="390" t="s">
+      <c r="L23" s="393" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="392"/>
-      <c r="N23" s="392"/>
+      <c r="M23" s="394"/>
+      <c r="N23" s="394"/>
       <c r="O23" s="8"/>
       <c r="P23" s="9"/>
       <c r="R23" s="7"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="390" t="s">
+      <c r="T23" s="393" t="s">
         <v>42</v>
       </c>
-      <c r="U23" s="392"/>
-      <c r="V23" s="392"/>
+      <c r="U23" s="394"/>
+      <c r="V23" s="394"/>
       <c r="W23" s="8"/>
       <c r="X23" s="9"/>
       <c r="Z23" s="74"/>
@@ -8176,29 +8173,29 @@
     <row r="32" spans="2:29" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="390" t="s">
+      <c r="D32" s="393" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="392"/>
-      <c r="F32" s="392"/>
+      <c r="E32" s="394"/>
+      <c r="F32" s="394"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="J32" s="7"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="390" t="s">
+      <c r="L32" s="393" t="s">
         <v>44</v>
       </c>
-      <c r="M32" s="392"/>
-      <c r="N32" s="392"/>
+      <c r="M32" s="394"/>
+      <c r="N32" s="394"/>
       <c r="O32" s="8"/>
       <c r="P32" s="9"/>
       <c r="R32" s="7"/>
       <c r="S32" s="8"/>
-      <c r="T32" s="390" t="s">
+      <c r="T32" s="393" t="s">
         <v>45</v>
       </c>
-      <c r="U32" s="392"/>
-      <c r="V32" s="392"/>
+      <c r="U32" s="394"/>
+      <c r="V32" s="394"/>
       <c r="W32" s="8"/>
       <c r="X32" s="9"/>
       <c r="Z32" s="79">
@@ -8278,11 +8275,11 @@
       <c r="Z33" s="82">
         <v>1752</v>
       </c>
-      <c r="AA33" s="394" t="s">
+      <c r="AA33" s="391" t="s">
         <v>47</v>
       </c>
-      <c r="AB33" s="394"/>
-      <c r="AC33" s="395"/>
+      <c r="AB33" s="391"/>
+      <c r="AC33" s="392"/>
     </row>
     <row r="34" spans="2:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
@@ -8328,11 +8325,11 @@
         <f>Z32-Z33</f>
         <v>232</v>
       </c>
-      <c r="AA34" s="394" t="s">
+      <c r="AA34" s="391" t="s">
         <v>48</v>
       </c>
-      <c r="AB34" s="394"/>
-      <c r="AC34" s="395"/>
+      <c r="AB34" s="391"/>
+      <c r="AC34" s="392"/>
     </row>
     <row r="35" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30">
@@ -8647,11 +8644,11 @@
         <f>R39*8</f>
         <v>152</v>
       </c>
-      <c r="AA40" s="393" t="s">
+      <c r="AA40" s="390" t="s">
         <v>50</v>
       </c>
-      <c r="AB40" s="393"/>
-      <c r="AC40" s="393"/>
+      <c r="AB40" s="390"/>
+      <c r="AC40" s="390"/>
     </row>
     <row r="41" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z41" s="94"/>
@@ -8727,6 +8724,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -8736,13 +8740,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8790,24 +8787,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="461" t="s">
+      <c r="B6" s="464" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="462"/>
-      <c r="D6" s="462"/>
-      <c r="E6" s="462"/>
-      <c r="F6" s="462"/>
-      <c r="G6" s="462"/>
-      <c r="H6" s="463"/>
-      <c r="J6" s="464" t="s">
+      <c r="C6" s="465"/>
+      <c r="D6" s="465"/>
+      <c r="E6" s="465"/>
+      <c r="F6" s="465"/>
+      <c r="G6" s="465"/>
+      <c r="H6" s="466"/>
+      <c r="J6" s="467" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="464"/>
-      <c r="L6" s="464"/>
-      <c r="M6" s="464"/>
-      <c r="N6" s="464"/>
-      <c r="O6" s="464"/>
-      <c r="P6" s="465"/>
+      <c r="K6" s="467"/>
+      <c r="L6" s="467"/>
+      <c r="M6" s="467"/>
+      <c r="N6" s="467"/>
+      <c r="O6" s="467"/>
+      <c r="P6" s="468"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="299" t="s">
@@ -8819,11 +8816,11 @@
       <c r="E8" s="301" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="466" t="s">
+      <c r="F8" s="469" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="466"/>
-      <c r="H8" s="466"/>
+      <c r="G8" s="469"/>
+      <c r="H8" s="469"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="299" t="s">
@@ -8835,11 +8832,11 @@
       <c r="E9" s="301" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="466" t="s">
+      <c r="F9" s="469" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="466"/>
-      <c r="H9" s="466"/>
+      <c r="G9" s="469"/>
+      <c r="H9" s="469"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="299" t="s">
@@ -8851,11 +8848,11 @@
       <c r="E10" s="301" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="466" t="s">
+      <c r="F10" s="469" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="466"/>
-      <c r="H10" s="466"/>
+      <c r="G10" s="469"/>
+      <c r="H10" s="469"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="299" t="s">
@@ -8867,11 +8864,11 @@
       <c r="E11" s="301" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="467" t="s">
+      <c r="F11" s="470" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="466"/>
-      <c r="H11" s="466"/>
+      <c r="G11" s="469"/>
+      <c r="H11" s="469"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="302" t="s">
@@ -9267,51 +9264,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="460" t="s">
+      <c r="B58" s="463" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="460"/>
-      <c r="D58" s="460"/>
-      <c r="E58" s="460"/>
-      <c r="F58" s="460"/>
-      <c r="G58" s="460"/>
-      <c r="H58" s="460"/>
+      <c r="C58" s="463"/>
+      <c r="D58" s="463"/>
+      <c r="E58" s="463"/>
+      <c r="F58" s="463"/>
+      <c r="G58" s="463"/>
+      <c r="H58" s="463"/>
     </row>
     <row r="59" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="460"/>
-      <c r="C59" s="460"/>
-      <c r="D59" s="460"/>
-      <c r="E59" s="460"/>
-      <c r="F59" s="460"/>
-      <c r="G59" s="460"/>
-      <c r="H59" s="460"/>
+      <c r="B59" s="463"/>
+      <c r="C59" s="463"/>
+      <c r="D59" s="463"/>
+      <c r="E59" s="463"/>
+      <c r="F59" s="463"/>
+      <c r="G59" s="463"/>
+      <c r="H59" s="463"/>
     </row>
     <row r="60" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="460"/>
-      <c r="C60" s="460"/>
-      <c r="D60" s="460"/>
-      <c r="E60" s="460"/>
-      <c r="F60" s="460"/>
-      <c r="G60" s="460"/>
-      <c r="H60" s="460"/>
+      <c r="B60" s="463"/>
+      <c r="C60" s="463"/>
+      <c r="D60" s="463"/>
+      <c r="E60" s="463"/>
+      <c r="F60" s="463"/>
+      <c r="G60" s="463"/>
+      <c r="H60" s="463"/>
     </row>
     <row r="61" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="460"/>
-      <c r="C61" s="460"/>
-      <c r="D61" s="460"/>
-      <c r="E61" s="460"/>
-      <c r="F61" s="460"/>
-      <c r="G61" s="460"/>
-      <c r="H61" s="460"/>
+      <c r="B61" s="463"/>
+      <c r="C61" s="463"/>
+      <c r="D61" s="463"/>
+      <c r="E61" s="463"/>
+      <c r="F61" s="463"/>
+      <c r="G61" s="463"/>
+      <c r="H61" s="463"/>
     </row>
     <row r="62" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="460"/>
-      <c r="C62" s="460"/>
-      <c r="D62" s="460"/>
-      <c r="E62" s="460"/>
-      <c r="F62" s="460"/>
-      <c r="G62" s="460"/>
-      <c r="H62" s="460"/>
+      <c r="B62" s="463"/>
+      <c r="C62" s="463"/>
+      <c r="D62" s="463"/>
+      <c r="E62" s="463"/>
+      <c r="F62" s="463"/>
+      <c r="G62" s="463"/>
+      <c r="H62" s="463"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9370,24 +9367,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="469" t="s">
+      <c r="B6" s="472" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="470"/>
-      <c r="D6" s="470"/>
-      <c r="E6" s="470"/>
-      <c r="F6" s="470"/>
-      <c r="G6" s="470"/>
-      <c r="H6" s="471"/>
-      <c r="J6" s="472" t="s">
+      <c r="C6" s="473"/>
+      <c r="D6" s="473"/>
+      <c r="E6" s="473"/>
+      <c r="F6" s="473"/>
+      <c r="G6" s="473"/>
+      <c r="H6" s="474"/>
+      <c r="J6" s="475" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="472"/>
-      <c r="L6" s="472"/>
-      <c r="M6" s="472"/>
-      <c r="N6" s="472"/>
-      <c r="O6" s="472"/>
-      <c r="P6" s="473"/>
+      <c r="K6" s="475"/>
+      <c r="L6" s="475"/>
+      <c r="M6" s="475"/>
+      <c r="N6" s="475"/>
+      <c r="O6" s="475"/>
+      <c r="P6" s="476"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="322" t="s">
@@ -9399,11 +9396,11 @@
       <c r="E8" s="324" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="474" t="s">
+      <c r="F8" s="477" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="474"/>
-      <c r="H8" s="474"/>
+      <c r="G8" s="477"/>
+      <c r="H8" s="477"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="322" t="s">
@@ -9415,11 +9412,11 @@
       <c r="E9" s="324" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="474" t="s">
+      <c r="F9" s="477" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="474"/>
-      <c r="H9" s="474"/>
+      <c r="G9" s="477"/>
+      <c r="H9" s="477"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="322" t="s">
@@ -9431,11 +9428,11 @@
       <c r="E10" s="324" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="474" t="s">
+      <c r="F10" s="477" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="474"/>
-      <c r="H10" s="474"/>
+      <c r="G10" s="477"/>
+      <c r="H10" s="477"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="322" t="s">
@@ -9447,11 +9444,11 @@
       <c r="E11" s="324" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="475" t="s">
+      <c r="F11" s="478" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="474"/>
-      <c r="H11" s="474"/>
+      <c r="G11" s="477"/>
+      <c r="H11" s="477"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="325" t="s">
@@ -9855,51 +9852,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="468" t="s">
+      <c r="B58" s="471" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="468"/>
-      <c r="D58" s="468"/>
-      <c r="E58" s="468"/>
-      <c r="F58" s="468"/>
-      <c r="G58" s="468"/>
-      <c r="H58" s="468"/>
+      <c r="C58" s="471"/>
+      <c r="D58" s="471"/>
+      <c r="E58" s="471"/>
+      <c r="F58" s="471"/>
+      <c r="G58" s="471"/>
+      <c r="H58" s="471"/>
     </row>
     <row r="59" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="468"/>
-      <c r="C59" s="468"/>
-      <c r="D59" s="468"/>
-      <c r="E59" s="468"/>
-      <c r="F59" s="468"/>
-      <c r="G59" s="468"/>
-      <c r="H59" s="468"/>
+      <c r="B59" s="471"/>
+      <c r="C59" s="471"/>
+      <c r="D59" s="471"/>
+      <c r="E59" s="471"/>
+      <c r="F59" s="471"/>
+      <c r="G59" s="471"/>
+      <c r="H59" s="471"/>
     </row>
     <row r="60" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="468"/>
-      <c r="C60" s="468"/>
-      <c r="D60" s="468"/>
-      <c r="E60" s="468"/>
-      <c r="F60" s="468"/>
-      <c r="G60" s="468"/>
-      <c r="H60" s="468"/>
+      <c r="B60" s="471"/>
+      <c r="C60" s="471"/>
+      <c r="D60" s="471"/>
+      <c r="E60" s="471"/>
+      <c r="F60" s="471"/>
+      <c r="G60" s="471"/>
+      <c r="H60" s="471"/>
     </row>
     <row r="61" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="468"/>
-      <c r="C61" s="468"/>
-      <c r="D61" s="468"/>
-      <c r="E61" s="468"/>
-      <c r="F61" s="468"/>
-      <c r="G61" s="468"/>
-      <c r="H61" s="468"/>
+      <c r="B61" s="471"/>
+      <c r="C61" s="471"/>
+      <c r="D61" s="471"/>
+      <c r="E61" s="471"/>
+      <c r="F61" s="471"/>
+      <c r="G61" s="471"/>
+      <c r="H61" s="471"/>
     </row>
     <row r="62" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="468"/>
-      <c r="C62" s="468"/>
-      <c r="D62" s="468"/>
-      <c r="E62" s="468"/>
-      <c r="F62" s="468"/>
-      <c r="G62" s="468"/>
-      <c r="H62" s="468"/>
+      <c r="B62" s="471"/>
+      <c r="C62" s="471"/>
+      <c r="D62" s="471"/>
+      <c r="E62" s="471"/>
+      <c r="F62" s="471"/>
+      <c r="G62" s="471"/>
+      <c r="H62" s="471"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9958,24 +9955,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="477" t="s">
+      <c r="B6" s="480" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="478"/>
-      <c r="D6" s="478"/>
-      <c r="E6" s="478"/>
-      <c r="F6" s="478"/>
-      <c r="G6" s="478"/>
-      <c r="H6" s="479"/>
-      <c r="J6" s="480" t="s">
+      <c r="C6" s="481"/>
+      <c r="D6" s="481"/>
+      <c r="E6" s="481"/>
+      <c r="F6" s="481"/>
+      <c r="G6" s="481"/>
+      <c r="H6" s="482"/>
+      <c r="J6" s="483" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="480"/>
-      <c r="L6" s="480"/>
-      <c r="M6" s="480"/>
-      <c r="N6" s="480"/>
-      <c r="O6" s="480"/>
-      <c r="P6" s="481"/>
+      <c r="K6" s="483"/>
+      <c r="L6" s="483"/>
+      <c r="M6" s="483"/>
+      <c r="N6" s="483"/>
+      <c r="O6" s="483"/>
+      <c r="P6" s="484"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="345" t="s">
@@ -9987,11 +9984,11 @@
       <c r="E8" s="347" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="482" t="s">
+      <c r="F8" s="485" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="482"/>
-      <c r="H8" s="482"/>
+      <c r="G8" s="485"/>
+      <c r="H8" s="485"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="345" t="s">
@@ -10003,11 +10000,11 @@
       <c r="E9" s="347" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="482" t="s">
+      <c r="F9" s="485" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="482"/>
-      <c r="H9" s="482"/>
+      <c r="G9" s="485"/>
+      <c r="H9" s="485"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="345" t="s">
@@ -10019,11 +10016,11 @@
       <c r="E10" s="347" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="482" t="s">
+      <c r="F10" s="485" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="482"/>
-      <c r="H10" s="482"/>
+      <c r="G10" s="485"/>
+      <c r="H10" s="485"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="345" t="s">
@@ -10035,11 +10032,11 @@
       <c r="E11" s="347" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="483" t="s">
+      <c r="F11" s="486" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="482"/>
-      <c r="H11" s="482"/>
+      <c r="G11" s="485"/>
+      <c r="H11" s="485"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="348" t="s">
@@ -10433,51 +10430,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="476" t="s">
+      <c r="B58" s="479" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="476"/>
-      <c r="D58" s="476"/>
-      <c r="E58" s="476"/>
-      <c r="F58" s="476"/>
-      <c r="G58" s="476"/>
-      <c r="H58" s="476"/>
+      <c r="C58" s="479"/>
+      <c r="D58" s="479"/>
+      <c r="E58" s="479"/>
+      <c r="F58" s="479"/>
+      <c r="G58" s="479"/>
+      <c r="H58" s="479"/>
     </row>
     <row r="59" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="476"/>
-      <c r="C59" s="476"/>
-      <c r="D59" s="476"/>
-      <c r="E59" s="476"/>
-      <c r="F59" s="476"/>
-      <c r="G59" s="476"/>
-      <c r="H59" s="476"/>
+      <c r="B59" s="479"/>
+      <c r="C59" s="479"/>
+      <c r="D59" s="479"/>
+      <c r="E59" s="479"/>
+      <c r="F59" s="479"/>
+      <c r="G59" s="479"/>
+      <c r="H59" s="479"/>
     </row>
     <row r="60" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="476"/>
-      <c r="C60" s="476"/>
-      <c r="D60" s="476"/>
-      <c r="E60" s="476"/>
-      <c r="F60" s="476"/>
-      <c r="G60" s="476"/>
-      <c r="H60" s="476"/>
+      <c r="B60" s="479"/>
+      <c r="C60" s="479"/>
+      <c r="D60" s="479"/>
+      <c r="E60" s="479"/>
+      <c r="F60" s="479"/>
+      <c r="G60" s="479"/>
+      <c r="H60" s="479"/>
     </row>
     <row r="61" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="476"/>
-      <c r="C61" s="476"/>
-      <c r="D61" s="476"/>
-      <c r="E61" s="476"/>
-      <c r="F61" s="476"/>
-      <c r="G61" s="476"/>
-      <c r="H61" s="476"/>
+      <c r="B61" s="479"/>
+      <c r="C61" s="479"/>
+      <c r="D61" s="479"/>
+      <c r="E61" s="479"/>
+      <c r="F61" s="479"/>
+      <c r="G61" s="479"/>
+      <c r="H61" s="479"/>
     </row>
     <row r="62" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="476"/>
-      <c r="C62" s="476"/>
-      <c r="D62" s="476"/>
-      <c r="E62" s="476"/>
-      <c r="F62" s="476"/>
-      <c r="G62" s="476"/>
-      <c r="H62" s="476"/>
+      <c r="B62" s="479"/>
+      <c r="C62" s="479"/>
+      <c r="D62" s="479"/>
+      <c r="E62" s="479"/>
+      <c r="F62" s="479"/>
+      <c r="G62" s="479"/>
+      <c r="H62" s="479"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10536,24 +10533,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="485" t="s">
+      <c r="B6" s="488" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="486"/>
-      <c r="D6" s="486"/>
-      <c r="E6" s="486"/>
-      <c r="F6" s="486"/>
-      <c r="G6" s="486"/>
-      <c r="H6" s="487"/>
-      <c r="J6" s="488" t="s">
+      <c r="C6" s="489"/>
+      <c r="D6" s="489"/>
+      <c r="E6" s="489"/>
+      <c r="F6" s="489"/>
+      <c r="G6" s="489"/>
+      <c r="H6" s="490"/>
+      <c r="J6" s="491" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="488"/>
-      <c r="L6" s="488"/>
-      <c r="M6" s="488"/>
-      <c r="N6" s="488"/>
-      <c r="O6" s="488"/>
-      <c r="P6" s="489"/>
+      <c r="K6" s="491"/>
+      <c r="L6" s="491"/>
+      <c r="M6" s="491"/>
+      <c r="N6" s="491"/>
+      <c r="O6" s="491"/>
+      <c r="P6" s="492"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="368" t="s">
@@ -10565,11 +10562,11 @@
       <c r="E8" s="370" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="490" t="s">
+      <c r="F8" s="493" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="490"/>
-      <c r="H8" s="490"/>
+      <c r="G8" s="493"/>
+      <c r="H8" s="493"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="368" t="s">
@@ -10581,11 +10578,11 @@
       <c r="E9" s="370" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="490" t="s">
+      <c r="F9" s="493" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="490"/>
-      <c r="H9" s="490"/>
+      <c r="G9" s="493"/>
+      <c r="H9" s="493"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="368" t="s">
@@ -10597,11 +10594,11 @@
       <c r="E10" s="370" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="490" t="s">
+      <c r="F10" s="493" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="490"/>
-      <c r="H10" s="490"/>
+      <c r="G10" s="493"/>
+      <c r="H10" s="493"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="368" t="s">
@@ -10613,11 +10610,11 @@
       <c r="E11" s="370" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="491" t="s">
+      <c r="F11" s="494" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="490"/>
-      <c r="H11" s="490"/>
+      <c r="G11" s="493"/>
+      <c r="H11" s="493"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="371" t="s">
@@ -11020,51 +11017,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="484" t="s">
+      <c r="B58" s="487" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="484"/>
-      <c r="D58" s="484"/>
-      <c r="E58" s="484"/>
-      <c r="F58" s="484"/>
-      <c r="G58" s="484"/>
-      <c r="H58" s="484"/>
+      <c r="C58" s="487"/>
+      <c r="D58" s="487"/>
+      <c r="E58" s="487"/>
+      <c r="F58" s="487"/>
+      <c r="G58" s="487"/>
+      <c r="H58" s="487"/>
     </row>
     <row r="59" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="484"/>
-      <c r="C59" s="484"/>
-      <c r="D59" s="484"/>
-      <c r="E59" s="484"/>
-      <c r="F59" s="484"/>
-      <c r="G59" s="484"/>
-      <c r="H59" s="484"/>
+      <c r="B59" s="487"/>
+      <c r="C59" s="487"/>
+      <c r="D59" s="487"/>
+      <c r="E59" s="487"/>
+      <c r="F59" s="487"/>
+      <c r="G59" s="487"/>
+      <c r="H59" s="487"/>
     </row>
     <row r="60" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="484"/>
-      <c r="C60" s="484"/>
-      <c r="D60" s="484"/>
-      <c r="E60" s="484"/>
-      <c r="F60" s="484"/>
-      <c r="G60" s="484"/>
-      <c r="H60" s="484"/>
+      <c r="B60" s="487"/>
+      <c r="C60" s="487"/>
+      <c r="D60" s="487"/>
+      <c r="E60" s="487"/>
+      <c r="F60" s="487"/>
+      <c r="G60" s="487"/>
+      <c r="H60" s="487"/>
     </row>
     <row r="61" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="484"/>
-      <c r="C61" s="484"/>
-      <c r="D61" s="484"/>
-      <c r="E61" s="484"/>
-      <c r="F61" s="484"/>
-      <c r="G61" s="484"/>
-      <c r="H61" s="484"/>
+      <c r="B61" s="487"/>
+      <c r="C61" s="487"/>
+      <c r="D61" s="487"/>
+      <c r="E61" s="487"/>
+      <c r="F61" s="487"/>
+      <c r="G61" s="487"/>
+      <c r="H61" s="487"/>
     </row>
     <row r="62" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="484"/>
-      <c r="C62" s="484"/>
-      <c r="D62" s="484"/>
-      <c r="E62" s="484"/>
-      <c r="F62" s="484"/>
-      <c r="G62" s="484"/>
-      <c r="H62" s="484"/>
+      <c r="B62" s="487"/>
+      <c r="C62" s="487"/>
+      <c r="D62" s="487"/>
+      <c r="E62" s="487"/>
+      <c r="F62" s="487"/>
+      <c r="G62" s="487"/>
+      <c r="H62" s="487"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11140,24 +11137,24 @@
       <c r="N5" s="103"/>
     </row>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="397" t="s">
+      <c r="B6" s="400" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="398"/>
-      <c r="D6" s="398"/>
-      <c r="E6" s="398"/>
-      <c r="F6" s="398"/>
-      <c r="G6" s="398"/>
-      <c r="H6" s="399"/>
-      <c r="J6" s="400" t="s">
+      <c r="C6" s="401"/>
+      <c r="D6" s="401"/>
+      <c r="E6" s="401"/>
+      <c r="F6" s="401"/>
+      <c r="G6" s="401"/>
+      <c r="H6" s="402"/>
+      <c r="J6" s="403" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="400"/>
-      <c r="L6" s="400"/>
-      <c r="M6" s="400"/>
-      <c r="N6" s="400"/>
-      <c r="O6" s="400"/>
-      <c r="P6" s="401"/>
+      <c r="K6" s="403"/>
+      <c r="L6" s="403"/>
+      <c r="M6" s="403"/>
+      <c r="N6" s="403"/>
+      <c r="O6" s="403"/>
+      <c r="P6" s="404"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="107" t="s">
@@ -11169,11 +11166,11 @@
       <c r="E8" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="402" t="s">
+      <c r="F8" s="405" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="402"/>
-      <c r="H8" s="402"/>
+      <c r="G8" s="405"/>
+      <c r="H8" s="405"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="107" t="s">
@@ -11185,11 +11182,11 @@
       <c r="E9" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="402" t="s">
+      <c r="F9" s="405" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="402"/>
-      <c r="H9" s="402"/>
+      <c r="G9" s="405"/>
+      <c r="H9" s="405"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="107" t="s">
@@ -11201,11 +11198,11 @@
       <c r="E10" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="402" t="s">
+      <c r="F10" s="405" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="402"/>
-      <c r="H10" s="402"/>
+      <c r="G10" s="405"/>
+      <c r="H10" s="405"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="107" t="s">
@@ -11217,11 +11214,11 @@
       <c r="E11" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="403" t="s">
+      <c r="F11" s="406" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="402"/>
-      <c r="H11" s="402"/>
+      <c r="G11" s="405"/>
+      <c r="H11" s="405"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="110" t="s">
@@ -11278,11 +11275,11 @@
       <c r="B18" s="115">
         <v>3</v>
       </c>
-      <c r="C18" s="493" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E18" s="493" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C18" s="388">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E18" s="388">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G18" s="113">
         <f>((E18-C18)*24)-1</f>
@@ -11293,11 +11290,11 @@
       <c r="B19" s="115">
         <v>4</v>
       </c>
-      <c r="C19" s="493" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="E19" s="493" t="n">
-        <v>0.7430555555555556</v>
+      <c r="C19" s="388">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E19" s="388">
+        <v>0.74305555555555558</v>
       </c>
       <c r="G19" s="113">
         <f>((E19-C19)*24)-1</f>
@@ -11308,10 +11305,10 @@
       <c r="B20" s="115">
         <v>5</v>
       </c>
-      <c r="C20" s="493" t="n">
+      <c r="C20" s="388">
         <v>0.375</v>
       </c>
-      <c r="E20" s="493" t="n">
+      <c r="E20" s="388">
         <v>0.75</v>
       </c>
       <c r="G20" s="113">
@@ -11333,11 +11330,11 @@
       <c r="B22" s="115">
         <v>7</v>
       </c>
-      <c r="C22" s="493" t="n">
-        <v>0.3715277777777778</v>
-      </c>
-      <c r="E22" s="493" t="n">
-        <v>0.7465277777777778</v>
+      <c r="C22" s="388">
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="E22" s="388">
+        <v>0.74652777777777779</v>
       </c>
       <c r="G22" s="113">
         <f>((E22-C22)*24)-1</f>
@@ -11368,10 +11365,10 @@
       <c r="B25" s="115">
         <v>10</v>
       </c>
-      <c r="C25" s="493" t="n">
+      <c r="C25" s="388">
         <v>0.375</v>
       </c>
-      <c r="E25" s="493" t="n">
+      <c r="E25" s="388">
         <v>0.75</v>
       </c>
       <c r="G25" s="113">
@@ -11383,11 +11380,11 @@
       <c r="B26" s="115">
         <v>11</v>
       </c>
-      <c r="C26" s="493" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="E26" s="493" t="n">
-        <v>0.7430555555555556</v>
+      <c r="C26" s="388">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E26" s="388">
+        <v>0.74305555555555558</v>
       </c>
       <c r="G26" s="113">
         <f>((E26-C26)*24)-1</f>
@@ -11398,11 +11395,11 @@
       <c r="B27" s="115">
         <v>12</v>
       </c>
-      <c r="C27" s="493" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E27" s="493" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C27" s="388">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E27" s="388">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G27" s="113">
         <f>((E27-C27)*24)-1</f>
@@ -11413,10 +11410,10 @@
       <c r="B28" s="115">
         <v>13</v>
       </c>
-      <c r="C28" s="493" t="n">
+      <c r="C28" s="388">
         <v>0.375</v>
       </c>
-      <c r="E28" s="493" t="n">
+      <c r="E28" s="388">
         <v>0.75</v>
       </c>
       <c r="G28" s="113">
@@ -11428,11 +11425,11 @@
       <c r="B29" s="115">
         <v>14</v>
       </c>
-      <c r="C29" s="493" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="E29" s="493" t="n">
-        <v>0.7430555555555556</v>
+      <c r="C29" s="388">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E29" s="388">
+        <v>0.74305555555555558</v>
       </c>
       <c r="G29" s="113">
         <f>((E29-C29)*24)-1</f>
@@ -11463,11 +11460,11 @@
       <c r="B32" s="115">
         <v>17</v>
       </c>
-      <c r="C32" s="493" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E32" s="493" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C32" s="388">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E32" s="388">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G32" s="113">
         <f>((E32-C32)*24)-1</f>
@@ -11478,11 +11475,11 @@
       <c r="B33" s="115">
         <v>18</v>
       </c>
-      <c r="C33" s="493" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E33" s="493" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C33" s="388">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E33" s="388">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G33" s="113">
         <f>((E33-C33)*24)-1</f>
@@ -11493,10 +11490,10 @@
       <c r="B34" s="115">
         <v>19</v>
       </c>
-      <c r="C34" s="493" t="n">
+      <c r="C34" s="388">
         <v>0.375</v>
       </c>
-      <c r="E34" s="493" t="n">
+      <c r="E34" s="388">
         <v>0.75</v>
       </c>
       <c r="G34" s="113">
@@ -11508,11 +11505,11 @@
       <c r="B35" s="115">
         <v>20</v>
       </c>
-      <c r="C35" s="493" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="E35" s="493" t="n">
-        <v>0.7430555555555556</v>
+      <c r="C35" s="388">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E35" s="388">
+        <v>0.74305555555555558</v>
       </c>
       <c r="G35" s="113">
         <f>((E35-C35)*24)-1</f>
@@ -11523,11 +11520,11 @@
       <c r="B36" s="115">
         <v>21</v>
       </c>
-      <c r="C36" s="493" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="E36" s="493" t="n">
-        <v>0.7291666666666666</v>
+      <c r="C36" s="388">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E36" s="388">
+        <v>0.72916666666666663</v>
       </c>
       <c r="G36" s="113">
         <f>((E36-C36)*24)-1</f>
@@ -11558,11 +11555,11 @@
       <c r="B39" s="115">
         <v>24</v>
       </c>
-      <c r="C39" s="493" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E39" s="493" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C39" s="388">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E39" s="388">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G39" s="113">
         <f>((E39-C39)*24)-1</f>
@@ -11573,11 +11570,11 @@
       <c r="B40" s="115">
         <v>25</v>
       </c>
-      <c r="C40" s="493" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E40" s="493" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C40" s="388">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E40" s="388">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G40" s="113">
         <f>((E40-C40)*24)-1</f>
@@ -11588,10 +11585,10 @@
       <c r="B41" s="115">
         <v>26</v>
       </c>
-      <c r="C41" s="493" t="n">
+      <c r="C41" s="388">
         <v>0.375</v>
       </c>
-      <c r="E41" s="493" t="n">
+      <c r="E41" s="388">
         <v>0.75</v>
       </c>
       <c r="G41" s="113">
@@ -11603,11 +11600,11 @@
       <c r="B42" s="115">
         <v>27</v>
       </c>
-      <c r="C42" s="493" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="E42" s="493" t="n">
-        <v>0.7430555555555556</v>
+      <c r="C42" s="388">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E42" s="388">
+        <v>0.74305555555555558</v>
       </c>
       <c r="G42" s="113">
         <f>((E42-C42)*24)-1</f>
@@ -11618,11 +11615,11 @@
       <c r="B43" s="115">
         <v>28</v>
       </c>
-      <c r="C43" s="493" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="E43" s="493" t="n">
-        <v>0.7291666666666666</v>
+      <c r="C43" s="388">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E43" s="388">
+        <v>0.72916666666666663</v>
       </c>
       <c r="G43" s="113">
         <f>((E43-C43)*24)-1</f>
@@ -11653,10 +11650,10 @@
       <c r="B46" s="115">
         <v>31</v>
       </c>
-      <c r="C46" s="493" t="n">
+      <c r="C46" s="388">
         <v>0.375</v>
       </c>
-      <c r="E46" s="493" t="n">
+      <c r="E46" s="388">
         <v>0.75</v>
       </c>
       <c r="G46" s="113">
@@ -11712,53 +11709,54 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="396" t="s">
+      <c r="B58" s="399" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="396"/>
-      <c r="D58" s="396"/>
-      <c r="E58" s="396"/>
-      <c r="F58" s="396"/>
-      <c r="G58" s="396"/>
-      <c r="H58" s="396"/>
+      <c r="C58" s="399"/>
+      <c r="D58" s="399"/>
+      <c r="E58" s="399"/>
+      <c r="F58" s="399"/>
+      <c r="G58" s="399"/>
+      <c r="H58" s="399"/>
     </row>
     <row r="59" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="396"/>
-      <c r="C59" s="396"/>
-      <c r="D59" s="396"/>
-      <c r="E59" s="396"/>
-      <c r="F59" s="396"/>
-      <c r="G59" s="396"/>
-      <c r="H59" s="396"/>
+      <c r="B59" s="399"/>
+      <c r="C59" s="399"/>
+      <c r="D59" s="399"/>
+      <c r="E59" s="399"/>
+      <c r="F59" s="399"/>
+      <c r="G59" s="399"/>
+      <c r="H59" s="399"/>
     </row>
     <row r="60" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="396"/>
-      <c r="C60" s="396"/>
-      <c r="D60" s="396"/>
-      <c r="E60" s="396"/>
-      <c r="F60" s="396"/>
-      <c r="G60" s="396"/>
-      <c r="H60" s="396"/>
+      <c r="B60" s="399"/>
+      <c r="C60" s="399"/>
+      <c r="D60" s="399"/>
+      <c r="E60" s="399"/>
+      <c r="F60" s="399"/>
+      <c r="G60" s="399"/>
+      <c r="H60" s="399"/>
     </row>
     <row r="61" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="396"/>
-      <c r="C61" s="396"/>
-      <c r="D61" s="396"/>
-      <c r="E61" s="396"/>
-      <c r="F61" s="396"/>
-      <c r="G61" s="396"/>
-      <c r="H61" s="396"/>
+      <c r="B61" s="399"/>
+      <c r="C61" s="399"/>
+      <c r="D61" s="399"/>
+      <c r="E61" s="399"/>
+      <c r="F61" s="399"/>
+      <c r="G61" s="399"/>
+      <c r="H61" s="399"/>
     </row>
     <row r="62" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="396"/>
-      <c r="C62" s="396"/>
-      <c r="D62" s="396"/>
-      <c r="E62" s="396"/>
-      <c r="F62" s="396"/>
-      <c r="G62" s="396"/>
-      <c r="H62" s="396"/>
+      <c r="B62" s="399"/>
+      <c r="C62" s="399"/>
+      <c r="D62" s="399"/>
+      <c r="E62" s="399"/>
+      <c r="F62" s="399"/>
+      <c r="G62" s="399"/>
+      <c r="H62" s="399"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -11777,8 +11775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11832,24 +11830,24 @@
       <c r="N5" s="128"/>
     </row>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="407" t="s">
+      <c r="B6" s="410" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="408"/>
-      <c r="D6" s="408"/>
-      <c r="E6" s="408"/>
-      <c r="F6" s="408"/>
-      <c r="G6" s="408"/>
-      <c r="H6" s="409"/>
-      <c r="J6" s="410" t="s">
+      <c r="C6" s="411"/>
+      <c r="D6" s="411"/>
+      <c r="E6" s="411"/>
+      <c r="F6" s="411"/>
+      <c r="G6" s="411"/>
+      <c r="H6" s="412"/>
+      <c r="J6" s="413" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="410"/>
-      <c r="L6" s="410"/>
-      <c r="M6" s="410"/>
-      <c r="N6" s="410"/>
-      <c r="O6" s="410"/>
-      <c r="P6" s="411"/>
+      <c r="K6" s="413"/>
+      <c r="L6" s="413"/>
+      <c r="M6" s="413"/>
+      <c r="N6" s="413"/>
+      <c r="O6" s="413"/>
+      <c r="P6" s="414"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="132" t="s">
@@ -11861,11 +11859,11 @@
       <c r="E8" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="405" t="s">
+      <c r="F8" s="408" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="405"/>
-      <c r="H8" s="405"/>
+      <c r="G8" s="408"/>
+      <c r="H8" s="408"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="132" t="s">
@@ -11877,11 +11875,11 @@
       <c r="E9" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="405" t="s">
+      <c r="F9" s="408" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="405"/>
-      <c r="H9" s="405"/>
+      <c r="G9" s="408"/>
+      <c r="H9" s="408"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="132" t="s">
@@ -11893,11 +11891,11 @@
       <c r="E10" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="405" t="s">
+      <c r="F10" s="408" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="405"/>
-      <c r="H10" s="405"/>
+      <c r="G10" s="408"/>
+      <c r="H10" s="408"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="132" t="s">
@@ -11909,11 +11907,11 @@
       <c r="E11" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="404" t="s">
+      <c r="F11" s="407" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="405"/>
-      <c r="H11" s="405"/>
+      <c r="G11" s="408"/>
+      <c r="H11" s="408"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="135" t="s">
@@ -11949,11 +11947,11 @@
       <c r="B16" s="140">
         <v>1</v>
       </c>
-      <c r="C16" s="494" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E16" s="494" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C16" s="389">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E16" s="389">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G16" s="138">
         <f>((E16-C16)*24)-1</f>
@@ -11964,10 +11962,10 @@
       <c r="B17" s="140">
         <v>2</v>
       </c>
-      <c r="C17" s="494" t="n">
+      <c r="C17" s="389">
         <v>0.375</v>
       </c>
-      <c r="E17" s="494" t="n">
+      <c r="E17" s="389">
         <v>0.75</v>
       </c>
       <c r="G17" s="138">
@@ -11979,11 +11977,11 @@
       <c r="B18" s="140">
         <v>3</v>
       </c>
-      <c r="C18" s="494" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="E18" s="494" t="n">
-        <v>0.7430555555555556</v>
+      <c r="C18" s="389">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E18" s="389">
+        <v>0.74305555555555558</v>
       </c>
       <c r="G18" s="138">
         <f>((E18-C18)*24)-1</f>
@@ -11994,11 +11992,11 @@
       <c r="B19" s="140">
         <v>4</v>
       </c>
-      <c r="C19" s="494" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="E19" s="494" t="n">
-        <v>0.7291666666666666</v>
+      <c r="C19" s="389">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E19" s="389">
+        <v>0.72916666666666663</v>
       </c>
       <c r="G19" s="138">
         <f>((E19-C19)*24)-1</f>
@@ -12029,11 +12027,11 @@
       <c r="B22" s="140">
         <v>7</v>
       </c>
-      <c r="C22" s="494" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E22" s="494" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C22" s="389">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E22" s="389">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G22" s="138">
         <f>((E22-C22)*24)-1</f>
@@ -12044,11 +12042,11 @@
       <c r="B23" s="140">
         <v>8</v>
       </c>
-      <c r="C23" s="494" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E23" s="494" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C23" s="389">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E23" s="389">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G23" s="138">
         <f>((E23-C23)*24)-1</f>
@@ -12059,10 +12057,10 @@
       <c r="B24" s="140">
         <v>9</v>
       </c>
-      <c r="C24" s="494" t="n">
+      <c r="C24" s="389">
         <v>0.375</v>
       </c>
-      <c r="E24" s="494" t="n">
+      <c r="E24" s="389">
         <v>0.75</v>
       </c>
       <c r="G24" s="138">
@@ -12074,11 +12072,11 @@
       <c r="B25" s="140">
         <v>10</v>
       </c>
-      <c r="C25" s="494" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="E25" s="494" t="n">
-        <v>0.7430555555555556</v>
+      <c r="C25" s="389">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E25" s="389">
+        <v>0.74305555555555558</v>
       </c>
       <c r="G25" s="138">
         <f>((E25-C25)*24)-1</f>
@@ -12089,11 +12087,11 @@
       <c r="B26" s="140">
         <v>11</v>
       </c>
-      <c r="C26" s="494" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="E26" s="494" t="n">
-        <v>0.7291666666666666</v>
+      <c r="C26" s="389">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E26" s="389">
+        <v>0.72916666666666663</v>
       </c>
       <c r="G26" s="138">
         <f>((E26-C26)*24)-1</f>
@@ -12124,10 +12122,10 @@
       <c r="B29" s="140">
         <v>14</v>
       </c>
-      <c r="C29" s="494" t="n">
+      <c r="C29" s="389">
         <v>0.375</v>
       </c>
-      <c r="E29" s="494" t="n">
+      <c r="E29" s="389">
         <v>0.75</v>
       </c>
       <c r="G29" s="138">
@@ -12139,11 +12137,11 @@
       <c r="B30" s="140">
         <v>15</v>
       </c>
-      <c r="C30" s="494" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="E30" s="494" t="n">
-        <v>0.7430555555555556</v>
+      <c r="C30" s="389">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E30" s="389">
+        <v>0.74305555555555558</v>
       </c>
       <c r="G30" s="138">
         <f>((E30-C30)*24)-1</f>
@@ -12154,11 +12152,11 @@
       <c r="B31" s="140">
         <v>16</v>
       </c>
-      <c r="C31" s="494" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E31" s="494" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C31" s="389">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E31" s="389">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G31" s="138">
         <f>((E31-C31)*24)-1</f>
@@ -12169,25 +12167,27 @@
       <c r="B32" s="140">
         <v>17</v>
       </c>
-      <c r="C32" s="492">
-        <v>0.375</v>
-      </c>
-      <c r="E32" s="492">
-        <v>0.75</v>
-      </c>
-      <c r="G32" s="138">
-        <f>((E32-C32)*24)-1</f>
-        <v>8</v>
+      <c r="C32" s="387" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="387" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="138" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="140">
         <v>18</v>
       </c>
-      <c r="C33" s="492" t="s">
+      <c r="C33" s="387" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="492" t="s">
+      <c r="E33" s="387" t="s">
         <v>58</v>
       </c>
       <c r="G33" s="138" t="s">
@@ -12218,11 +12218,11 @@
       <c r="B36" s="140">
         <v>21</v>
       </c>
-      <c r="C36" s="494" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E36" s="494" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C36" s="389">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E36" s="389">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G36" s="138">
         <f>((E36-C36)*24)-1</f>
@@ -12233,10 +12233,10 @@
       <c r="B37" s="140">
         <v>22</v>
       </c>
-      <c r="C37" s="494" t="n">
+      <c r="C37" s="389">
         <v>0.375</v>
       </c>
-      <c r="E37" s="494" t="n">
+      <c r="E37" s="389">
         <v>0.75</v>
       </c>
       <c r="G37" s="138">
@@ -12248,10 +12248,10 @@
       <c r="B38" s="140">
         <v>23</v>
       </c>
-      <c r="C38" s="494" t="n">
+      <c r="C38" s="389">
         <v>0.375</v>
       </c>
-      <c r="E38" s="494" t="n">
+      <c r="E38" s="389">
         <v>0.75</v>
       </c>
       <c r="G38" s="138">
@@ -12263,11 +12263,11 @@
       <c r="B39" s="140">
         <v>24</v>
       </c>
-      <c r="C39" s="494" t="n">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="E39" s="494" t="n">
-        <v>0.7430555555555556</v>
+      <c r="C39" s="389">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E39" s="389">
+        <v>0.74305555555555558</v>
       </c>
       <c r="G39" s="138">
         <f>((E39-C39)*24)-1</f>
@@ -12278,11 +12278,11 @@
       <c r="B40" s="140">
         <v>25</v>
       </c>
-      <c r="C40" s="494" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E40" s="494" t="n">
-        <v>0.7395833333333334</v>
+      <c r="C40" s="389">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E40" s="389">
+        <v>0.73958333333333337</v>
       </c>
       <c r="G40" s="138">
         <f>((E40-C40)*24)-1</f>
@@ -12313,11 +12313,11 @@
       <c r="B43" s="140">
         <v>28</v>
       </c>
-      <c r="C43" s="494" t="n">
-        <v>0.3715277777777778</v>
-      </c>
-      <c r="E43" s="494" t="n">
-        <v>0.7465277777777778</v>
+      <c r="C43" s="389">
+        <v>0.37152777777777779</v>
+      </c>
+      <c r="E43" s="389">
+        <v>0.74652777777777779</v>
       </c>
       <c r="G43" s="138">
         <f>((E43-C43)*24)-1</f>
@@ -12388,53 +12388,54 @@
       <c r="H57" s="150"/>
     </row>
     <row r="58" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="406" t="s">
+      <c r="B58" s="409" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="406"/>
-      <c r="D58" s="406"/>
-      <c r="E58" s="406"/>
-      <c r="F58" s="406"/>
-      <c r="G58" s="406"/>
-      <c r="H58" s="406"/>
+      <c r="C58" s="409"/>
+      <c r="D58" s="409"/>
+      <c r="E58" s="409"/>
+      <c r="F58" s="409"/>
+      <c r="G58" s="409"/>
+      <c r="H58" s="409"/>
     </row>
     <row r="59" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="406"/>
-      <c r="C59" s="406"/>
-      <c r="D59" s="406"/>
-      <c r="E59" s="406"/>
-      <c r="F59" s="406"/>
-      <c r="G59" s="406"/>
-      <c r="H59" s="406"/>
+      <c r="B59" s="409"/>
+      <c r="C59" s="409"/>
+      <c r="D59" s="409"/>
+      <c r="E59" s="409"/>
+      <c r="F59" s="409"/>
+      <c r="G59" s="409"/>
+      <c r="H59" s="409"/>
     </row>
     <row r="60" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="406"/>
-      <c r="C60" s="406"/>
-      <c r="D60" s="406"/>
-      <c r="E60" s="406"/>
-      <c r="F60" s="406"/>
-      <c r="G60" s="406"/>
-      <c r="H60" s="406"/>
+      <c r="B60" s="409"/>
+      <c r="C60" s="409"/>
+      <c r="D60" s="409"/>
+      <c r="E60" s="409"/>
+      <c r="F60" s="409"/>
+      <c r="G60" s="409"/>
+      <c r="H60" s="409"/>
     </row>
     <row r="61" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="406"/>
-      <c r="C61" s="406"/>
-      <c r="D61" s="406"/>
-      <c r="E61" s="406"/>
-      <c r="F61" s="406"/>
-      <c r="G61" s="406"/>
-      <c r="H61" s="406"/>
+      <c r="B61" s="409"/>
+      <c r="C61" s="409"/>
+      <c r="D61" s="409"/>
+      <c r="E61" s="409"/>
+      <c r="F61" s="409"/>
+      <c r="G61" s="409"/>
+      <c r="H61" s="409"/>
     </row>
     <row r="62" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="406"/>
-      <c r="C62" s="406"/>
-      <c r="D62" s="406"/>
-      <c r="E62" s="406"/>
-      <c r="F62" s="406"/>
-      <c r="G62" s="406"/>
-      <c r="H62" s="406"/>
+      <c r="B62" s="409"/>
+      <c r="C62" s="409"/>
+      <c r="D62" s="409"/>
+      <c r="E62" s="409"/>
+      <c r="F62" s="409"/>
+      <c r="G62" s="409"/>
+      <c r="H62" s="409"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -12453,8 +12454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:E31"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12508,24 +12509,24 @@
       <c r="N5" s="153"/>
     </row>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="413" t="s">
+      <c r="B6" s="416" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="414"/>
-      <c r="D6" s="414"/>
-      <c r="E6" s="414"/>
-      <c r="F6" s="414"/>
-      <c r="G6" s="414"/>
-      <c r="H6" s="415"/>
-      <c r="J6" s="416" t="s">
+      <c r="C6" s="417"/>
+      <c r="D6" s="417"/>
+      <c r="E6" s="417"/>
+      <c r="F6" s="417"/>
+      <c r="G6" s="417"/>
+      <c r="H6" s="418"/>
+      <c r="J6" s="419" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="416"/>
-      <c r="L6" s="416"/>
-      <c r="M6" s="416"/>
-      <c r="N6" s="416"/>
-      <c r="O6" s="416"/>
-      <c r="P6" s="417"/>
+      <c r="K6" s="419"/>
+      <c r="L6" s="419"/>
+      <c r="M6" s="419"/>
+      <c r="N6" s="419"/>
+      <c r="O6" s="419"/>
+      <c r="P6" s="420"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="157" t="s">
@@ -12537,11 +12538,11 @@
       <c r="E8" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="418" t="s">
+      <c r="F8" s="421" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="418"/>
-      <c r="H8" s="418"/>
+      <c r="G8" s="421"/>
+      <c r="H8" s="421"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="157" t="s">
@@ -12553,11 +12554,11 @@
       <c r="E9" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="418" t="s">
+      <c r="F9" s="421" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="418"/>
-      <c r="H9" s="418"/>
+      <c r="G9" s="421"/>
+      <c r="H9" s="421"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="157" t="s">
@@ -12569,11 +12570,11 @@
       <c r="E10" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="418" t="s">
+      <c r="F10" s="421" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="418"/>
-      <c r="H10" s="418"/>
+      <c r="G10" s="421"/>
+      <c r="H10" s="421"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="157" t="s">
@@ -12585,11 +12586,11 @@
       <c r="E11" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="419" t="s">
+      <c r="F11" s="422" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="418"/>
-      <c r="H11" s="418"/>
+      <c r="G11" s="421"/>
+      <c r="H11" s="421"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="160" t="s">
@@ -12625,10 +12626,10 @@
       <c r="B16" s="165">
         <v>1</v>
       </c>
-      <c r="C16" s="492">
+      <c r="C16" s="387">
         <v>0.375</v>
       </c>
-      <c r="E16" s="492">
+      <c r="E16" s="387">
         <v>0.75</v>
       </c>
       <c r="G16" s="163">
@@ -12640,10 +12641,10 @@
       <c r="B17" s="165">
         <v>2</v>
       </c>
-      <c r="C17" s="492">
+      <c r="C17" s="387">
         <v>0.36805555555555558</v>
       </c>
-      <c r="E17" s="492">
+      <c r="E17" s="387">
         <v>0.74305555555555547</v>
       </c>
       <c r="G17" s="163">
@@ -12655,10 +12656,10 @@
       <c r="B18" s="165">
         <v>3</v>
       </c>
-      <c r="C18" s="492">
+      <c r="C18" s="387">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E18" s="492">
+      <c r="E18" s="387">
         <v>0.73958333333333337</v>
       </c>
       <c r="G18" s="163">
@@ -12670,10 +12671,10 @@
       <c r="B19" s="165">
         <v>4</v>
       </c>
-      <c r="C19" s="492">
+      <c r="C19" s="387">
         <v>0.375</v>
       </c>
-      <c r="E19" s="492">
+      <c r="E19" s="387">
         <v>0.75</v>
       </c>
       <c r="G19" s="163">
@@ -12705,10 +12706,10 @@
       <c r="B22" s="165">
         <v>7</v>
       </c>
-      <c r="C22" s="492">
+      <c r="C22" s="387">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E22" s="492">
+      <c r="E22" s="387">
         <v>0.73958333333333337</v>
       </c>
       <c r="G22" s="163">
@@ -12720,10 +12721,10 @@
       <c r="B23" s="165">
         <v>8</v>
       </c>
-      <c r="C23" s="492">
+      <c r="C23" s="387">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E23" s="492">
+      <c r="E23" s="387">
         <v>0.73958333333333337</v>
       </c>
       <c r="G23" s="163">
@@ -12735,10 +12736,10 @@
       <c r="B24" s="165">
         <v>9</v>
       </c>
-      <c r="C24" s="492">
+      <c r="C24" s="387">
         <v>0.375</v>
       </c>
-      <c r="E24" s="492">
+      <c r="E24" s="387">
         <v>0.75</v>
       </c>
       <c r="G24" s="163">
@@ -12750,10 +12751,10 @@
       <c r="B25" s="165">
         <v>10</v>
       </c>
-      <c r="C25" s="492">
+      <c r="C25" s="387">
         <v>0.36805555555555558</v>
       </c>
-      <c r="E25" s="492">
+      <c r="E25" s="387">
         <v>0.74305555555555547</v>
       </c>
       <c r="G25" s="163">
@@ -12765,10 +12766,10 @@
       <c r="B26" s="165">
         <v>11</v>
       </c>
-      <c r="C26" s="492">
+      <c r="C26" s="387">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E26" s="492">
+      <c r="E26" s="387">
         <v>0.72916666666666663</v>
       </c>
       <c r="G26" s="163">
@@ -12800,10 +12801,10 @@
       <c r="B29" s="165">
         <v>14</v>
       </c>
-      <c r="C29" s="492">
+      <c r="C29" s="387">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E29" s="492">
+      <c r="E29" s="387">
         <v>0.72916666666666663</v>
       </c>
       <c r="G29" s="163">
@@ -12815,10 +12816,10 @@
       <c r="B30" s="165">
         <v>15</v>
       </c>
-      <c r="C30" s="492">
+      <c r="C30" s="387">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E30" s="492">
+      <c r="E30" s="387">
         <v>0.73958333333333337</v>
       </c>
       <c r="G30" s="163">
@@ -12830,10 +12831,10 @@
       <c r="B31" s="165">
         <v>16</v>
       </c>
-      <c r="C31" s="492">
+      <c r="C31" s="387">
         <v>0.37152777777777773</v>
       </c>
-      <c r="E31" s="492">
+      <c r="E31" s="387">
         <v>0.74652777777777779</v>
       </c>
       <c r="G31" s="163">
@@ -13044,51 +13045,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="412" t="s">
+      <c r="B58" s="415" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="412"/>
-      <c r="D58" s="412"/>
-      <c r="E58" s="412"/>
-      <c r="F58" s="412"/>
-      <c r="G58" s="412"/>
-      <c r="H58" s="412"/>
+      <c r="C58" s="415"/>
+      <c r="D58" s="415"/>
+      <c r="E58" s="415"/>
+      <c r="F58" s="415"/>
+      <c r="G58" s="415"/>
+      <c r="H58" s="415"/>
     </row>
     <row r="59" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="412"/>
-      <c r="C59" s="412"/>
-      <c r="D59" s="412"/>
-      <c r="E59" s="412"/>
-      <c r="F59" s="412"/>
-      <c r="G59" s="412"/>
-      <c r="H59" s="412"/>
+      <c r="B59" s="415"/>
+      <c r="C59" s="415"/>
+      <c r="D59" s="415"/>
+      <c r="E59" s="415"/>
+      <c r="F59" s="415"/>
+      <c r="G59" s="415"/>
+      <c r="H59" s="415"/>
     </row>
     <row r="60" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="412"/>
-      <c r="C60" s="412"/>
-      <c r="D60" s="412"/>
-      <c r="E60" s="412"/>
-      <c r="F60" s="412"/>
-      <c r="G60" s="412"/>
-      <c r="H60" s="412"/>
+      <c r="B60" s="415"/>
+      <c r="C60" s="415"/>
+      <c r="D60" s="415"/>
+      <c r="E60" s="415"/>
+      <c r="F60" s="415"/>
+      <c r="G60" s="415"/>
+      <c r="H60" s="415"/>
     </row>
     <row r="61" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="412"/>
-      <c r="C61" s="412"/>
-      <c r="D61" s="412"/>
-      <c r="E61" s="412"/>
-      <c r="F61" s="412"/>
-      <c r="G61" s="412"/>
-      <c r="H61" s="412"/>
+      <c r="B61" s="415"/>
+      <c r="C61" s="415"/>
+      <c r="D61" s="415"/>
+      <c r="E61" s="415"/>
+      <c r="F61" s="415"/>
+      <c r="G61" s="415"/>
+      <c r="H61" s="415"/>
     </row>
     <row r="62" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="412"/>
-      <c r="C62" s="412"/>
-      <c r="D62" s="412"/>
-      <c r="E62" s="412"/>
-      <c r="F62" s="412"/>
-      <c r="G62" s="412"/>
-      <c r="H62" s="412"/>
+      <c r="B62" s="415"/>
+      <c r="C62" s="415"/>
+      <c r="D62" s="415"/>
+      <c r="E62" s="415"/>
+      <c r="F62" s="415"/>
+      <c r="G62" s="415"/>
+      <c r="H62" s="415"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13162,24 +13163,24 @@
       <c r="N5" s="178"/>
     </row>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="421" t="s">
+      <c r="B6" s="424" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="422"/>
-      <c r="D6" s="422"/>
-      <c r="E6" s="422"/>
-      <c r="F6" s="422"/>
-      <c r="G6" s="422"/>
-      <c r="H6" s="423"/>
-      <c r="J6" s="424" t="s">
+      <c r="C6" s="425"/>
+      <c r="D6" s="425"/>
+      <c r="E6" s="425"/>
+      <c r="F6" s="425"/>
+      <c r="G6" s="425"/>
+      <c r="H6" s="426"/>
+      <c r="J6" s="427" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="424"/>
-      <c r="L6" s="424"/>
-      <c r="M6" s="424"/>
-      <c r="N6" s="424"/>
-      <c r="O6" s="424"/>
-      <c r="P6" s="425"/>
+      <c r="K6" s="427"/>
+      <c r="L6" s="427"/>
+      <c r="M6" s="427"/>
+      <c r="N6" s="427"/>
+      <c r="O6" s="427"/>
+      <c r="P6" s="428"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="182" t="s">
@@ -13191,11 +13192,11 @@
       <c r="E8" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="426" t="s">
+      <c r="F8" s="429" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="426"/>
-      <c r="H8" s="426"/>
+      <c r="G8" s="429"/>
+      <c r="H8" s="429"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="182" t="s">
@@ -13207,11 +13208,11 @@
       <c r="E9" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="426" t="s">
+      <c r="F9" s="429" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="426"/>
-      <c r="H9" s="426"/>
+      <c r="G9" s="429"/>
+      <c r="H9" s="429"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="182" t="s">
@@ -13223,11 +13224,11 @@
       <c r="E10" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="426" t="s">
+      <c r="F10" s="429" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="426"/>
-      <c r="H10" s="426"/>
+      <c r="G10" s="429"/>
+      <c r="H10" s="429"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="182" t="s">
@@ -13239,11 +13240,11 @@
       <c r="E11" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="427" t="s">
+      <c r="F11" s="430" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="426"/>
-      <c r="H11" s="426"/>
+      <c r="G11" s="429"/>
+      <c r="H11" s="429"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="185" t="s">
@@ -13640,51 +13641,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="420" t="s">
+      <c r="B58" s="423" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="420"/>
-      <c r="D58" s="420"/>
-      <c r="E58" s="420"/>
-      <c r="F58" s="420"/>
-      <c r="G58" s="420"/>
-      <c r="H58" s="420"/>
+      <c r="C58" s="423"/>
+      <c r="D58" s="423"/>
+      <c r="E58" s="423"/>
+      <c r="F58" s="423"/>
+      <c r="G58" s="423"/>
+      <c r="H58" s="423"/>
     </row>
     <row r="59" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="420"/>
-      <c r="C59" s="420"/>
-      <c r="D59" s="420"/>
-      <c r="E59" s="420"/>
-      <c r="F59" s="420"/>
-      <c r="G59" s="420"/>
-      <c r="H59" s="420"/>
+      <c r="B59" s="423"/>
+      <c r="C59" s="423"/>
+      <c r="D59" s="423"/>
+      <c r="E59" s="423"/>
+      <c r="F59" s="423"/>
+      <c r="G59" s="423"/>
+      <c r="H59" s="423"/>
     </row>
     <row r="60" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="420"/>
-      <c r="C60" s="420"/>
-      <c r="D60" s="420"/>
-      <c r="E60" s="420"/>
-      <c r="F60" s="420"/>
-      <c r="G60" s="420"/>
-      <c r="H60" s="420"/>
+      <c r="B60" s="423"/>
+      <c r="C60" s="423"/>
+      <c r="D60" s="423"/>
+      <c r="E60" s="423"/>
+      <c r="F60" s="423"/>
+      <c r="G60" s="423"/>
+      <c r="H60" s="423"/>
     </row>
     <row r="61" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="420"/>
-      <c r="C61" s="420"/>
-      <c r="D61" s="420"/>
-      <c r="E61" s="420"/>
-      <c r="F61" s="420"/>
-      <c r="G61" s="420"/>
-      <c r="H61" s="420"/>
+      <c r="B61" s="423"/>
+      <c r="C61" s="423"/>
+      <c r="D61" s="423"/>
+      <c r="E61" s="423"/>
+      <c r="F61" s="423"/>
+      <c r="G61" s="423"/>
+      <c r="H61" s="423"/>
     </row>
     <row r="62" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="420"/>
-      <c r="C62" s="420"/>
-      <c r="D62" s="420"/>
-      <c r="E62" s="420"/>
-      <c r="F62" s="420"/>
-      <c r="G62" s="420"/>
-      <c r="H62" s="420"/>
+      <c r="B62" s="423"/>
+      <c r="C62" s="423"/>
+      <c r="D62" s="423"/>
+      <c r="E62" s="423"/>
+      <c r="F62" s="423"/>
+      <c r="G62" s="423"/>
+      <c r="H62" s="423"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13758,24 +13759,24 @@
       <c r="N5" s="203"/>
     </row>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="429" t="s">
+      <c r="B6" s="432" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="430"/>
-      <c r="D6" s="430"/>
-      <c r="E6" s="430"/>
-      <c r="F6" s="430"/>
-      <c r="G6" s="430"/>
-      <c r="H6" s="431"/>
-      <c r="J6" s="432" t="s">
+      <c r="C6" s="433"/>
+      <c r="D6" s="433"/>
+      <c r="E6" s="433"/>
+      <c r="F6" s="433"/>
+      <c r="G6" s="433"/>
+      <c r="H6" s="434"/>
+      <c r="J6" s="435" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="432"/>
-      <c r="L6" s="432"/>
-      <c r="M6" s="432"/>
-      <c r="N6" s="432"/>
-      <c r="O6" s="432"/>
-      <c r="P6" s="433"/>
+      <c r="K6" s="435"/>
+      <c r="L6" s="435"/>
+      <c r="M6" s="435"/>
+      <c r="N6" s="435"/>
+      <c r="O6" s="435"/>
+      <c r="P6" s="436"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="207" t="s">
@@ -13787,11 +13788,11 @@
       <c r="E8" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="434" t="s">
+      <c r="F8" s="437" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="434"/>
-      <c r="H8" s="434"/>
+      <c r="G8" s="437"/>
+      <c r="H8" s="437"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="207" t="s">
@@ -13803,11 +13804,11 @@
       <c r="E9" s="209" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="434" t="s">
+      <c r="F9" s="437" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="434"/>
-      <c r="H9" s="434"/>
+      <c r="G9" s="437"/>
+      <c r="H9" s="437"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="207" t="s">
@@ -13819,11 +13820,11 @@
       <c r="E10" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="434" t="s">
+      <c r="F10" s="437" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="434"/>
-      <c r="H10" s="434"/>
+      <c r="G10" s="437"/>
+      <c r="H10" s="437"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="207" t="s">
@@ -13835,11 +13836,11 @@
       <c r="E11" s="209" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="435" t="s">
+      <c r="F11" s="438" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="434"/>
-      <c r="H11" s="434"/>
+      <c r="G11" s="437"/>
+      <c r="H11" s="437"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="210" t="s">
@@ -14245,51 +14246,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="428" t="s">
+      <c r="B58" s="431" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="428"/>
-      <c r="D58" s="428"/>
-      <c r="E58" s="428"/>
-      <c r="F58" s="428"/>
-      <c r="G58" s="428"/>
-      <c r="H58" s="428"/>
+      <c r="C58" s="431"/>
+      <c r="D58" s="431"/>
+      <c r="E58" s="431"/>
+      <c r="F58" s="431"/>
+      <c r="G58" s="431"/>
+      <c r="H58" s="431"/>
     </row>
     <row r="59" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="428"/>
-      <c r="C59" s="428"/>
-      <c r="D59" s="428"/>
-      <c r="E59" s="428"/>
-      <c r="F59" s="428"/>
-      <c r="G59" s="428"/>
-      <c r="H59" s="428"/>
+      <c r="B59" s="431"/>
+      <c r="C59" s="431"/>
+      <c r="D59" s="431"/>
+      <c r="E59" s="431"/>
+      <c r="F59" s="431"/>
+      <c r="G59" s="431"/>
+      <c r="H59" s="431"/>
     </row>
     <row r="60" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="428"/>
-      <c r="C60" s="428"/>
-      <c r="D60" s="428"/>
-      <c r="E60" s="428"/>
-      <c r="F60" s="428"/>
-      <c r="G60" s="428"/>
-      <c r="H60" s="428"/>
+      <c r="B60" s="431"/>
+      <c r="C60" s="431"/>
+      <c r="D60" s="431"/>
+      <c r="E60" s="431"/>
+      <c r="F60" s="431"/>
+      <c r="G60" s="431"/>
+      <c r="H60" s="431"/>
     </row>
     <row r="61" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="428"/>
-      <c r="C61" s="428"/>
-      <c r="D61" s="428"/>
-      <c r="E61" s="428"/>
-      <c r="F61" s="428"/>
-      <c r="G61" s="428"/>
-      <c r="H61" s="428"/>
+      <c r="B61" s="431"/>
+      <c r="C61" s="431"/>
+      <c r="D61" s="431"/>
+      <c r="E61" s="431"/>
+      <c r="F61" s="431"/>
+      <c r="G61" s="431"/>
+      <c r="H61" s="431"/>
     </row>
     <row r="62" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="428"/>
-      <c r="C62" s="428"/>
-      <c r="D62" s="428"/>
-      <c r="E62" s="428"/>
-      <c r="F62" s="428"/>
-      <c r="G62" s="428"/>
-      <c r="H62" s="428"/>
+      <c r="B62" s="431"/>
+      <c r="C62" s="431"/>
+      <c r="D62" s="431"/>
+      <c r="E62" s="431"/>
+      <c r="F62" s="431"/>
+      <c r="G62" s="431"/>
+      <c r="H62" s="431"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -14348,24 +14349,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="440" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="438"/>
-      <c r="D6" s="438"/>
-      <c r="E6" s="438"/>
-      <c r="F6" s="438"/>
-      <c r="G6" s="438"/>
-      <c r="H6" s="439"/>
-      <c r="J6" s="440" t="s">
+      <c r="C6" s="441"/>
+      <c r="D6" s="441"/>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="442"/>
+      <c r="J6" s="443" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="440"/>
-      <c r="L6" s="440"/>
-      <c r="M6" s="440"/>
-      <c r="N6" s="440"/>
-      <c r="O6" s="440"/>
-      <c r="P6" s="441"/>
+      <c r="K6" s="443"/>
+      <c r="L6" s="443"/>
+      <c r="M6" s="443"/>
+      <c r="N6" s="443"/>
+      <c r="O6" s="443"/>
+      <c r="P6" s="444"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="230" t="s">
@@ -14377,11 +14378,11 @@
       <c r="E8" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="442" t="s">
+      <c r="F8" s="445" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="442"/>
-      <c r="H8" s="442"/>
+      <c r="G8" s="445"/>
+      <c r="H8" s="445"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="230" t="s">
@@ -14393,11 +14394,11 @@
       <c r="E9" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="442" t="s">
+      <c r="F9" s="445" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="442"/>
-      <c r="H9" s="442"/>
+      <c r="G9" s="445"/>
+      <c r="H9" s="445"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="230" t="s">
@@ -14409,11 +14410,11 @@
       <c r="E10" s="232" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="442" t="s">
+      <c r="F10" s="445" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="442"/>
-      <c r="H10" s="442"/>
+      <c r="G10" s="445"/>
+      <c r="H10" s="445"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="230" t="s">
@@ -14425,11 +14426,11 @@
       <c r="E11" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="443" t="s">
+      <c r="F11" s="446" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="442"/>
-      <c r="H11" s="442"/>
+      <c r="G11" s="445"/>
+      <c r="H11" s="445"/>
     </row>
     <row r="12" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" s="233"/>
@@ -14830,51 +14831,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="436" t="s">
+      <c r="B58" s="439" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="436"/>
-      <c r="D58" s="436"/>
-      <c r="E58" s="436"/>
-      <c r="F58" s="436"/>
-      <c r="G58" s="436"/>
-      <c r="H58" s="436"/>
+      <c r="C58" s="439"/>
+      <c r="D58" s="439"/>
+      <c r="E58" s="439"/>
+      <c r="F58" s="439"/>
+      <c r="G58" s="439"/>
+      <c r="H58" s="439"/>
     </row>
     <row r="59" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="436"/>
-      <c r="C59" s="436"/>
-      <c r="D59" s="436"/>
-      <c r="E59" s="436"/>
-      <c r="F59" s="436"/>
-      <c r="G59" s="436"/>
-      <c r="H59" s="436"/>
+      <c r="B59" s="439"/>
+      <c r="C59" s="439"/>
+      <c r="D59" s="439"/>
+      <c r="E59" s="439"/>
+      <c r="F59" s="439"/>
+      <c r="G59" s="439"/>
+      <c r="H59" s="439"/>
     </row>
     <row r="60" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="436"/>
-      <c r="C60" s="436"/>
-      <c r="D60" s="436"/>
-      <c r="E60" s="436"/>
-      <c r="F60" s="436"/>
-      <c r="G60" s="436"/>
-      <c r="H60" s="436"/>
+      <c r="B60" s="439"/>
+      <c r="C60" s="439"/>
+      <c r="D60" s="439"/>
+      <c r="E60" s="439"/>
+      <c r="F60" s="439"/>
+      <c r="G60" s="439"/>
+      <c r="H60" s="439"/>
     </row>
     <row r="61" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="436"/>
-      <c r="C61" s="436"/>
-      <c r="D61" s="436"/>
-      <c r="E61" s="436"/>
-      <c r="F61" s="436"/>
-      <c r="G61" s="436"/>
-      <c r="H61" s="436"/>
+      <c r="B61" s="439"/>
+      <c r="C61" s="439"/>
+      <c r="D61" s="439"/>
+      <c r="E61" s="439"/>
+      <c r="F61" s="439"/>
+      <c r="G61" s="439"/>
+      <c r="H61" s="439"/>
     </row>
     <row r="62" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="436"/>
-      <c r="C62" s="436"/>
-      <c r="D62" s="436"/>
-      <c r="E62" s="436"/>
-      <c r="F62" s="436"/>
-      <c r="G62" s="436"/>
-      <c r="H62" s="436"/>
+      <c r="B62" s="439"/>
+      <c r="C62" s="439"/>
+      <c r="D62" s="439"/>
+      <c r="E62" s="439"/>
+      <c r="F62" s="439"/>
+      <c r="G62" s="439"/>
+      <c r="H62" s="439"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -14933,24 +14934,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="448" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="446"/>
-      <c r="D6" s="446"/>
-      <c r="E6" s="446"/>
-      <c r="F6" s="446"/>
-      <c r="G6" s="446"/>
-      <c r="H6" s="447"/>
-      <c r="J6" s="448" t="s">
+      <c r="C6" s="449"/>
+      <c r="D6" s="449"/>
+      <c r="E6" s="449"/>
+      <c r="F6" s="449"/>
+      <c r="G6" s="449"/>
+      <c r="H6" s="450"/>
+      <c r="J6" s="451" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="448"/>
-      <c r="L6" s="448"/>
-      <c r="M6" s="448"/>
-      <c r="N6" s="448"/>
-      <c r="O6" s="448"/>
-      <c r="P6" s="449"/>
+      <c r="K6" s="451"/>
+      <c r="L6" s="451"/>
+      <c r="M6" s="451"/>
+      <c r="N6" s="451"/>
+      <c r="O6" s="451"/>
+      <c r="P6" s="452"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="253" t="s">
@@ -14962,11 +14963,11 @@
       <c r="E8" s="255" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="450" t="s">
+      <c r="F8" s="453" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="450"/>
-      <c r="H8" s="450"/>
+      <c r="G8" s="453"/>
+      <c r="H8" s="453"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="253" t="s">
@@ -14978,11 +14979,11 @@
       <c r="E9" s="255" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="450" t="s">
+      <c r="F9" s="453" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="450"/>
-      <c r="H9" s="450"/>
+      <c r="G9" s="453"/>
+      <c r="H9" s="453"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="253" t="s">
@@ -14994,11 +14995,11 @@
       <c r="E10" s="255" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="450" t="s">
+      <c r="F10" s="453" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="450"/>
-      <c r="H10" s="450"/>
+      <c r="G10" s="453"/>
+      <c r="H10" s="453"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="253" t="s">
@@ -15010,11 +15011,11 @@
       <c r="E11" s="255" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="451" t="s">
+      <c r="F11" s="454" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="450"/>
-      <c r="H11" s="450"/>
+      <c r="G11" s="453"/>
+      <c r="H11" s="453"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="256" t="s">
@@ -15418,51 +15419,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="444" t="s">
+      <c r="B58" s="447" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="444"/>
-      <c r="D58" s="444"/>
-      <c r="E58" s="444"/>
-      <c r="F58" s="444"/>
-      <c r="G58" s="444"/>
-      <c r="H58" s="444"/>
+      <c r="C58" s="447"/>
+      <c r="D58" s="447"/>
+      <c r="E58" s="447"/>
+      <c r="F58" s="447"/>
+      <c r="G58" s="447"/>
+      <c r="H58" s="447"/>
     </row>
     <row r="59" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="444"/>
-      <c r="C59" s="444"/>
-      <c r="D59" s="444"/>
-      <c r="E59" s="444"/>
-      <c r="F59" s="444"/>
-      <c r="G59" s="444"/>
-      <c r="H59" s="444"/>
+      <c r="B59" s="447"/>
+      <c r="C59" s="447"/>
+      <c r="D59" s="447"/>
+      <c r="E59" s="447"/>
+      <c r="F59" s="447"/>
+      <c r="G59" s="447"/>
+      <c r="H59" s="447"/>
     </row>
     <row r="60" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="444"/>
-      <c r="C60" s="444"/>
-      <c r="D60" s="444"/>
-      <c r="E60" s="444"/>
-      <c r="F60" s="444"/>
-      <c r="G60" s="444"/>
-      <c r="H60" s="444"/>
+      <c r="B60" s="447"/>
+      <c r="C60" s="447"/>
+      <c r="D60" s="447"/>
+      <c r="E60" s="447"/>
+      <c r="F60" s="447"/>
+      <c r="G60" s="447"/>
+      <c r="H60" s="447"/>
     </row>
     <row r="61" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="444"/>
-      <c r="C61" s="444"/>
-      <c r="D61" s="444"/>
-      <c r="E61" s="444"/>
-      <c r="F61" s="444"/>
-      <c r="G61" s="444"/>
-      <c r="H61" s="444"/>
+      <c r="B61" s="447"/>
+      <c r="C61" s="447"/>
+      <c r="D61" s="447"/>
+      <c r="E61" s="447"/>
+      <c r="F61" s="447"/>
+      <c r="G61" s="447"/>
+      <c r="H61" s="447"/>
     </row>
     <row r="62" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="444"/>
-      <c r="C62" s="444"/>
-      <c r="D62" s="444"/>
-      <c r="E62" s="444"/>
-      <c r="F62" s="444"/>
-      <c r="G62" s="444"/>
-      <c r="H62" s="444"/>
+      <c r="B62" s="447"/>
+      <c r="C62" s="447"/>
+      <c r="D62" s="447"/>
+      <c r="E62" s="447"/>
+      <c r="F62" s="447"/>
+      <c r="G62" s="447"/>
+      <c r="H62" s="447"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15521,24 +15522,24 @@
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="453" t="s">
+      <c r="B6" s="456" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="454"/>
-      <c r="D6" s="454"/>
-      <c r="E6" s="454"/>
-      <c r="F6" s="454"/>
-      <c r="G6" s="454"/>
-      <c r="H6" s="455"/>
-      <c r="J6" s="456" t="s">
+      <c r="C6" s="457"/>
+      <c r="D6" s="457"/>
+      <c r="E6" s="457"/>
+      <c r="F6" s="457"/>
+      <c r="G6" s="457"/>
+      <c r="H6" s="458"/>
+      <c r="J6" s="459" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="456"/>
-      <c r="L6" s="456"/>
-      <c r="M6" s="456"/>
-      <c r="N6" s="456"/>
-      <c r="O6" s="456"/>
-      <c r="P6" s="457"/>
+      <c r="K6" s="459"/>
+      <c r="L6" s="459"/>
+      <c r="M6" s="459"/>
+      <c r="N6" s="459"/>
+      <c r="O6" s="459"/>
+      <c r="P6" s="460"/>
     </row>
     <row r="8" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="276" t="s">
@@ -15550,11 +15551,11 @@
       <c r="E8" s="278" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="458" t="s">
+      <c r="F8" s="461" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="458"/>
-      <c r="H8" s="458"/>
+      <c r="G8" s="461"/>
+      <c r="H8" s="461"/>
     </row>
     <row r="9" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="276" t="s">
@@ -15566,11 +15567,11 @@
       <c r="E9" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="458" t="s">
+      <c r="F9" s="461" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="458"/>
-      <c r="H9" s="458"/>
+      <c r="G9" s="461"/>
+      <c r="H9" s="461"/>
     </row>
     <row r="10" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="276" t="s">
@@ -15582,11 +15583,11 @@
       <c r="E10" s="278" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="458" t="s">
+      <c r="F10" s="461" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="458"/>
-      <c r="H10" s="458"/>
+      <c r="G10" s="461"/>
+      <c r="H10" s="461"/>
     </row>
     <row r="11" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="276" t="s">
@@ -15598,11 +15599,11 @@
       <c r="E11" s="278" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="459" t="s">
+      <c r="F11" s="462" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="458"/>
-      <c r="H11" s="458"/>
+      <c r="G11" s="461"/>
+      <c r="H11" s="461"/>
     </row>
     <row r="14" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="279" t="s">
@@ -16008,51 +16009,51 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="452" t="s">
+      <c r="B58" s="455" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="452"/>
-      <c r="D58" s="452"/>
-      <c r="E58" s="452"/>
-      <c r="F58" s="452"/>
-      <c r="G58" s="452"/>
-      <c r="H58" s="452"/>
+      <c r="C58" s="455"/>
+      <c r="D58" s="455"/>
+      <c r="E58" s="455"/>
+      <c r="F58" s="455"/>
+      <c r="G58" s="455"/>
+      <c r="H58" s="455"/>
     </row>
     <row r="59" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="452"/>
-      <c r="C59" s="452"/>
-      <c r="D59" s="452"/>
-      <c r="E59" s="452"/>
-      <c r="F59" s="452"/>
-      <c r="G59" s="452"/>
-      <c r="H59" s="452"/>
+      <c r="B59" s="455"/>
+      <c r="C59" s="455"/>
+      <c r="D59" s="455"/>
+      <c r="E59" s="455"/>
+      <c r="F59" s="455"/>
+      <c r="G59" s="455"/>
+      <c r="H59" s="455"/>
     </row>
     <row r="60" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="452"/>
-      <c r="C60" s="452"/>
-      <c r="D60" s="452"/>
-      <c r="E60" s="452"/>
-      <c r="F60" s="452"/>
-      <c r="G60" s="452"/>
-      <c r="H60" s="452"/>
+      <c r="B60" s="455"/>
+      <c r="C60" s="455"/>
+      <c r="D60" s="455"/>
+      <c r="E60" s="455"/>
+      <c r="F60" s="455"/>
+      <c r="G60" s="455"/>
+      <c r="H60" s="455"/>
     </row>
     <row r="61" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="452"/>
-      <c r="C61" s="452"/>
-      <c r="D61" s="452"/>
-      <c r="E61" s="452"/>
-      <c r="F61" s="452"/>
-      <c r="G61" s="452"/>
-      <c r="H61" s="452"/>
+      <c r="B61" s="455"/>
+      <c r="C61" s="455"/>
+      <c r="D61" s="455"/>
+      <c r="E61" s="455"/>
+      <c r="F61" s="455"/>
+      <c r="G61" s="455"/>
+      <c r="H61" s="455"/>
     </row>
     <row r="62" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="452"/>
-      <c r="C62" s="452"/>
-      <c r="D62" s="452"/>
-      <c r="E62" s="452"/>
-      <c r="F62" s="452"/>
-      <c r="G62" s="452"/>
-      <c r="H62" s="452"/>
+      <c r="B62" s="455"/>
+      <c r="C62" s="455"/>
+      <c r="D62" s="455"/>
+      <c r="E62" s="455"/>
+      <c r="F62" s="455"/>
+      <c r="G62" s="455"/>
+      <c r="H62" s="455"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Palobiofarma, S.L Pamplona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6598C6-1BEA-4113-82C8-83C4671900B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016A5546-3784-4BB6-96CC-B0F6C3E193C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="116">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -5518,6 +5518,24 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="103" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5526,24 +5544,6 @@
     </xf>
     <xf numFmtId="0" fontId="91" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6735,37 +6735,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC46"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
-    <col min="2" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
-    <col min="10" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
-    <col min="18" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="5.77734375" collapsed="true"/>
-    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="8" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="2.77734375" customWidth="1" collapsed="1"/>
+    <col min="10" max="16" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="2.77734375" customWidth="1" collapsed="1"/>
+    <col min="18" max="24" width="6.77734375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="5.77734375" customWidth="1" collapsed="1"/>
+    <col min="27" max="29" width="25" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="395" t="s">
+      <c r="G1" s="390" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="395"/>
-      <c r="I1" s="395"/>
-      <c r="J1" s="395"/>
-      <c r="K1" s="395"/>
-      <c r="L1" s="395"/>
-      <c r="M1" s="395"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="390"/>
+      <c r="J1" s="390"/>
+      <c r="K1" s="390"/>
+      <c r="L1" s="390"/>
+      <c r="M1" s="390"/>
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6774,11 +6774,11 @@
     <row r="3" spans="2:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="396" t="s">
+      <c r="D3" s="391" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="397"/>
-      <c r="F3" s="397"/>
+      <c r="E3" s="392"/>
+      <c r="F3" s="392"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
       <c r="J3" s="7"/>
@@ -6786,8 +6786,8 @@
       <c r="L3" s="393" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="398"/>
-      <c r="N3" s="398"/>
+      <c r="M3" s="394"/>
+      <c r="N3" s="394"/>
       <c r="O3" s="8"/>
       <c r="P3" s="9"/>
       <c r="R3" s="7"/>
@@ -6795,8 +6795,8 @@
       <c r="T3" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="398"/>
-      <c r="V3" s="398"/>
+      <c r="U3" s="394"/>
+      <c r="V3" s="394"/>
       <c r="W3" s="8"/>
       <c r="X3" s="9"/>
       <c r="Z3" s="10" t="s">
@@ -7265,8 +7265,8 @@
       <c r="D13" s="393" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="394"/>
-      <c r="F13" s="394"/>
+      <c r="E13" s="395"/>
+      <c r="F13" s="395"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="J13" s="61"/>
@@ -7274,8 +7274,8 @@
       <c r="L13" s="393" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="394"/>
-      <c r="N13" s="394"/>
+      <c r="M13" s="395"/>
+      <c r="N13" s="395"/>
       <c r="O13" s="62"/>
       <c r="P13" s="63"/>
       <c r="R13" s="7"/>
@@ -7283,8 +7283,8 @@
       <c r="T13" s="393" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="394"/>
-      <c r="V13" s="394"/>
+      <c r="U13" s="395"/>
+      <c r="V13" s="395"/>
       <c r="W13" s="8"/>
       <c r="X13" s="9"/>
     </row>
@@ -7738,8 +7738,8 @@
       <c r="D23" s="393" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="394"/>
-      <c r="F23" s="394"/>
+      <c r="E23" s="395"/>
+      <c r="F23" s="395"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="J23" s="7"/>
@@ -7747,8 +7747,8 @@
       <c r="L23" s="393" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="394"/>
-      <c r="N23" s="394"/>
+      <c r="M23" s="395"/>
+      <c r="N23" s="395"/>
       <c r="O23" s="8"/>
       <c r="P23" s="9"/>
       <c r="R23" s="7"/>
@@ -7756,8 +7756,8 @@
       <c r="T23" s="393" t="s">
         <v>42</v>
       </c>
-      <c r="U23" s="394"/>
-      <c r="V23" s="394"/>
+      <c r="U23" s="395"/>
+      <c r="V23" s="395"/>
       <c r="W23" s="8"/>
       <c r="X23" s="9"/>
       <c r="Z23" s="74"/>
@@ -8176,8 +8176,8 @@
       <c r="D32" s="393" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="394"/>
-      <c r="F32" s="394"/>
+      <c r="E32" s="395"/>
+      <c r="F32" s="395"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
       <c r="J32" s="7"/>
@@ -8185,8 +8185,8 @@
       <c r="L32" s="393" t="s">
         <v>44</v>
       </c>
-      <c r="M32" s="394"/>
-      <c r="N32" s="394"/>
+      <c r="M32" s="395"/>
+      <c r="N32" s="395"/>
       <c r="O32" s="8"/>
       <c r="P32" s="9"/>
       <c r="R32" s="7"/>
@@ -8194,8 +8194,8 @@
       <c r="T32" s="393" t="s">
         <v>45</v>
       </c>
-      <c r="U32" s="394"/>
-      <c r="V32" s="394"/>
+      <c r="U32" s="395"/>
+      <c r="V32" s="395"/>
       <c r="W32" s="8"/>
       <c r="X32" s="9"/>
       <c r="Z32" s="79">
@@ -8275,11 +8275,11 @@
       <c r="Z33" s="82">
         <v>1752</v>
       </c>
-      <c r="AA33" s="391" t="s">
+      <c r="AA33" s="397" t="s">
         <v>47</v>
       </c>
-      <c r="AB33" s="391"/>
-      <c r="AC33" s="392"/>
+      <c r="AB33" s="397"/>
+      <c r="AC33" s="398"/>
     </row>
     <row r="34" spans="2:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
@@ -8325,11 +8325,11 @@
         <f>Z32-Z33</f>
         <v>232</v>
       </c>
-      <c r="AA34" s="391" t="s">
+      <c r="AA34" s="397" t="s">
         <v>48</v>
       </c>
-      <c r="AB34" s="391"/>
-      <c r="AC34" s="392"/>
+      <c r="AB34" s="397"/>
+      <c r="AC34" s="398"/>
     </row>
     <row r="35" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30">
@@ -8644,11 +8644,11 @@
         <f>R39*8</f>
         <v>152</v>
       </c>
-      <c r="AA40" s="390" t="s">
+      <c r="AA40" s="396" t="s">
         <v>50</v>
       </c>
-      <c r="AB40" s="390"/>
-      <c r="AC40" s="390"/>
+      <c r="AB40" s="396"/>
+      <c r="AC40" s="396"/>
     </row>
     <row r="41" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z41" s="94"/>
@@ -8724,13 +8724,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -8740,6 +8733,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8747,24 +8747,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9327,24 +9327,24 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9915,24 +9915,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10493,24 +10493,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11080,7 +11080,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C46" sqref="C46:E46"/>
@@ -11088,18 +11088,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11756,7 +11756,7 @@
       <c r="H62" s="399"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
+  <sheetProtection password="BCDB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -11773,26 +11773,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12170,9 +12170,6 @@
       <c r="C32" s="387" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="387" t="s">
-        <v>58</v>
-      </c>
       <c r="E32" s="138" t="s">
         <v>58</v>
       </c>
@@ -12435,7 +12432,7 @@
       <c r="H62" s="409"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hkMGYQNKFi3H31en1vckSv9RqWsF/HOaXsn4fMKwxdZZmZGwPWd65wmpof0sXbB9hy53zuV4BCsoNIUYL6FaRQ==" saltValue="UuQO0iYJE8inzRlw97/3Vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -12452,7 +12449,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -12460,18 +12457,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -13108,24 +13105,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -13704,24 +13701,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14309,24 +14306,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14894,24 +14891,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15482,24 +15479,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B2:P62"/>
+  <dimension ref="A2:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Palobiofarma, S.L Pamplona\"/>
     </mc:Choice>
@@ -4689,7 +4689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="495">
+  <cellXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5832,6 +5832,9 @@
     </xf>
     <xf numFmtId="14" fontId="475" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6735,22 +6738,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="B1:AC46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="8" width="6.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="2.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="16" width="6.77734375" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="2.77734375" customWidth="1" collapsed="1"/>
-    <col min="18" max="24" width="6.77734375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="5.77734375" customWidth="1" collapsed="1"/>
-    <col min="27" max="29" width="25" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
@@ -8747,24 +8750,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9327,24 +9330,24 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -9915,24 +9918,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -10493,24 +10496,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11080,7 +11083,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C46" sqref="C46:E46"/>
@@ -11088,18 +11091,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11773,7 +11776,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
@@ -11781,18 +11784,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12449,7 +12452,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -12457,18 +12460,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -12623,10 +12626,10 @@
       <c r="B16" s="165">
         <v>1</v>
       </c>
-      <c r="C16" s="387">
+      <c r="C16" s="495" t="n">
         <v>0.375</v>
       </c>
-      <c r="E16" s="387">
+      <c r="E16" s="495" t="n">
         <v>0.75</v>
       </c>
       <c r="G16" s="163">
@@ -12638,11 +12641,11 @@
       <c r="B17" s="165">
         <v>2</v>
       </c>
-      <c r="C17" s="387">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="E17" s="387">
-        <v>0.74305555555555547</v>
+      <c r="C17" s="495" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E17" s="495" t="n">
+        <v>0.7430555555555556</v>
       </c>
       <c r="G17" s="163">
         <f>((E17-C17)*24)-1</f>
@@ -12653,11 +12656,11 @@
       <c r="B18" s="165">
         <v>3</v>
       </c>
-      <c r="C18" s="387">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="E18" s="387">
-        <v>0.73958333333333337</v>
+      <c r="C18" s="495" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E18" s="495" t="n">
+        <v>0.7395833333333334</v>
       </c>
       <c r="G18" s="163">
         <f>((E18-C18)*24)-1</f>
@@ -12668,10 +12671,10 @@
       <c r="B19" s="165">
         <v>4</v>
       </c>
-      <c r="C19" s="387">
+      <c r="C19" s="495" t="n">
         <v>0.375</v>
       </c>
-      <c r="E19" s="387">
+      <c r="E19" s="495" t="n">
         <v>0.75</v>
       </c>
       <c r="G19" s="163">
@@ -12703,11 +12706,11 @@
       <c r="B22" s="165">
         <v>7</v>
       </c>
-      <c r="C22" s="387">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="E22" s="387">
-        <v>0.73958333333333337</v>
+      <c r="C22" s="495" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E22" s="495" t="n">
+        <v>0.7395833333333334</v>
       </c>
       <c r="G22" s="163">
         <f>((E22-C22)*24)-1</f>
@@ -12718,11 +12721,11 @@
       <c r="B23" s="165">
         <v>8</v>
       </c>
-      <c r="C23" s="387">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="E23" s="387">
-        <v>0.73958333333333337</v>
+      <c r="C23" s="495" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E23" s="495" t="n">
+        <v>0.7395833333333334</v>
       </c>
       <c r="G23" s="163">
         <f>((E23-C23)*24)-1</f>
@@ -12733,10 +12736,10 @@
       <c r="B24" s="165">
         <v>9</v>
       </c>
-      <c r="C24" s="387">
+      <c r="C24" s="495" t="n">
         <v>0.375</v>
       </c>
-      <c r="E24" s="387">
+      <c r="E24" s="495" t="n">
         <v>0.75</v>
       </c>
       <c r="G24" s="163">
@@ -12748,11 +12751,11 @@
       <c r="B25" s="165">
         <v>10</v>
       </c>
-      <c r="C25" s="387">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="E25" s="387">
-        <v>0.74305555555555547</v>
+      <c r="C25" s="495" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E25" s="495" t="n">
+        <v>0.7430555555555556</v>
       </c>
       <c r="G25" s="163">
         <f>((E25-C25)*24)-1</f>
@@ -12763,11 +12766,11 @@
       <c r="B26" s="165">
         <v>11</v>
       </c>
-      <c r="C26" s="387">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E26" s="387">
-        <v>0.72916666666666663</v>
+      <c r="C26" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E26" s="495" t="n">
+        <v>0.7291666666666666</v>
       </c>
       <c r="G26" s="163">
         <f>((E26-C26)*24)-1</f>
@@ -12798,11 +12801,11 @@
       <c r="B29" s="165">
         <v>14</v>
       </c>
-      <c r="C29" s="387">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E29" s="387">
-        <v>0.72916666666666663</v>
+      <c r="C29" s="495" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E29" s="495" t="n">
+        <v>0.7291666666666666</v>
       </c>
       <c r="G29" s="163">
         <f>((E29-C29)*24)-1</f>
@@ -12813,11 +12816,11 @@
       <c r="B30" s="165">
         <v>15</v>
       </c>
-      <c r="C30" s="387">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="E30" s="387">
-        <v>0.73958333333333337</v>
+      <c r="C30" s="495" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E30" s="495" t="n">
+        <v>0.7395833333333334</v>
       </c>
       <c r="G30" s="163">
         <f>((E30-C30)*24)-1</f>
@@ -12828,11 +12831,11 @@
       <c r="B31" s="165">
         <v>16</v>
       </c>
-      <c r="C31" s="387">
-        <v>0.37152777777777773</v>
-      </c>
-      <c r="E31" s="387">
-        <v>0.74652777777777779</v>
+      <c r="C31" s="495" t="n">
+        <v>0.3715277777777778</v>
+      </c>
+      <c r="E31" s="495" t="n">
+        <v>0.7465277777777778</v>
       </c>
       <c r="G31" s="163">
         <f>((E31-C31)*24)-1</f>
@@ -12843,8 +12846,12 @@
       <c r="B32" s="165">
         <v>17</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="E32" s="166"/>
+      <c r="C32" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="163">
         <f>((E32-C32)*24)-1</f>
         <v>-1</v>
@@ -12854,8 +12861,12 @@
       <c r="B33" s="165">
         <v>18</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="E33" s="166"/>
+      <c r="C33" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="495" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="163">
         <f>((E33-C33)*24)-1</f>
         <v>-1</v>
@@ -13105,24 +13116,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -13701,24 +13712,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14306,24 +14317,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14891,24 +14902,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15479,24 +15490,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A2:Q62"/>
+  <dimension ref="B2:P62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="3.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="17" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="117">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -4689,7 +4692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="499">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5832,6 +5835,15 @@
     </xf>
     <xf numFmtId="14" fontId="475" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -11759,7 +11771,7 @@
       <c r="H62" s="399"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCDB" sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -12626,10 +12638,10 @@
       <c r="B16" s="165">
         <v>1</v>
       </c>
-      <c r="C16" s="495" t="n">
+      <c r="C16" s="496" t="n">
         <v>0.375</v>
       </c>
-      <c r="E16" s="495" t="n">
+      <c r="E16" s="496" t="n">
         <v>0.75</v>
       </c>
       <c r="G16" s="163">
@@ -12641,10 +12653,10 @@
       <c r="B17" s="165">
         <v>2</v>
       </c>
-      <c r="C17" s="495" t="n">
+      <c r="C17" s="496" t="n">
         <v>0.3680555555555556</v>
       </c>
-      <c r="E17" s="495" t="n">
+      <c r="E17" s="496" t="n">
         <v>0.7430555555555556</v>
       </c>
       <c r="G17" s="163">
@@ -12656,10 +12668,10 @@
       <c r="B18" s="165">
         <v>3</v>
       </c>
-      <c r="C18" s="495" t="n">
+      <c r="C18" s="496" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E18" s="495" t="n">
+      <c r="E18" s="496" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G18" s="163">
@@ -12671,10 +12683,10 @@
       <c r="B19" s="165">
         <v>4</v>
       </c>
-      <c r="C19" s="495" t="n">
+      <c r="C19" s="496" t="n">
         <v>0.375</v>
       </c>
-      <c r="E19" s="495" t="n">
+      <c r="E19" s="496" t="n">
         <v>0.75</v>
       </c>
       <c r="G19" s="163">
@@ -12706,10 +12718,10 @@
       <c r="B22" s="165">
         <v>7</v>
       </c>
-      <c r="C22" s="495" t="n">
+      <c r="C22" s="496" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E22" s="495" t="n">
+      <c r="E22" s="496" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G22" s="163">
@@ -12721,10 +12733,10 @@
       <c r="B23" s="165">
         <v>8</v>
       </c>
-      <c r="C23" s="495" t="n">
+      <c r="C23" s="496" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E23" s="495" t="n">
+      <c r="E23" s="496" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G23" s="163">
@@ -12736,10 +12748,10 @@
       <c r="B24" s="165">
         <v>9</v>
       </c>
-      <c r="C24" s="495" t="n">
+      <c r="C24" s="496" t="n">
         <v>0.375</v>
       </c>
-      <c r="E24" s="495" t="n">
+      <c r="E24" s="496" t="n">
         <v>0.75</v>
       </c>
       <c r="G24" s="163">
@@ -12751,10 +12763,10 @@
       <c r="B25" s="165">
         <v>10</v>
       </c>
-      <c r="C25" s="495" t="n">
+      <c r="C25" s="496" t="n">
         <v>0.3680555555555556</v>
       </c>
-      <c r="E25" s="495" t="n">
+      <c r="E25" s="496" t="n">
         <v>0.7430555555555556</v>
       </c>
       <c r="G25" s="163">
@@ -12766,10 +12778,10 @@
       <c r="B26" s="165">
         <v>11</v>
       </c>
-      <c r="C26" s="495" t="n">
+      <c r="C26" s="496" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="E26" s="495" t="n">
+      <c r="E26" s="496" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="G26" s="163">
@@ -12801,10 +12813,10 @@
       <c r="B29" s="165">
         <v>14</v>
       </c>
-      <c r="C29" s="495" t="n">
+      <c r="C29" s="496" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="E29" s="495" t="n">
+      <c r="E29" s="496" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="G29" s="163">
@@ -12816,10 +12828,10 @@
       <c r="B30" s="165">
         <v>15</v>
       </c>
-      <c r="C30" s="495" t="n">
+      <c r="C30" s="496" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E30" s="495" t="n">
+      <c r="E30" s="496" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G30" s="163">
@@ -12831,10 +12843,10 @@
       <c r="B31" s="165">
         <v>16</v>
       </c>
-      <c r="C31" s="495" t="n">
+      <c r="C31" s="496" t="n">
         <v>0.3715277777777778</v>
       </c>
-      <c r="E31" s="495" t="n">
+      <c r="E31" s="496" t="n">
         <v>0.7465277777777778</v>
       </c>
       <c r="G31" s="163">
@@ -12846,10 +12858,10 @@
       <c r="B32" s="165">
         <v>17</v>
       </c>
-      <c r="C32" s="495" t="n">
+      <c r="C32" s="496" t="n">
         <v>0.375</v>
       </c>
-      <c r="E32" s="495" t="n">
+      <c r="E32" s="496" t="n">
         <v>0.75</v>
       </c>
       <c r="G32" s="163">
@@ -12861,10 +12873,10 @@
       <c r="B33" s="165">
         <v>18</v>
       </c>
-      <c r="C33" s="495" t="n">
+      <c r="C33" s="496" t="n">
         <v>0.375</v>
       </c>
-      <c r="E33" s="495" t="n">
+      <c r="E33" s="496" t="n">
         <v>0.75</v>
       </c>
       <c r="G33" s="163">
@@ -12896,8 +12908,12 @@
       <c r="B36" s="165">
         <v>21</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="E36" s="166"/>
+      <c r="C36" s="496" t="n">
+        <v>0.3715277777777778</v>
+      </c>
+      <c r="E36" s="496" t="n">
+        <v>0.7465277777777778</v>
+      </c>
       <c r="G36" s="163">
         <f>((E36-C36)*24)-1</f>
         <v>-1</v>
@@ -12907,8 +12923,12 @@
       <c r="B37" s="165">
         <v>22</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="E37" s="166"/>
+      <c r="C37" s="496" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E37" s="496" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G37" s="163">
         <f>((E37-C37)*24)-1</f>
         <v>-1</v>
@@ -12918,8 +12938,12 @@
       <c r="B38" s="165">
         <v>23</v>
       </c>
-      <c r="C38" s="166"/>
-      <c r="E38" s="166"/>
+      <c r="C38" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="163">
         <f>((E38-C38)*24)-1</f>
         <v>-1</v>
@@ -12929,8 +12953,12 @@
       <c r="B39" s="165">
         <v>24</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="E39" s="166"/>
+      <c r="C39" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G39" s="163">
         <f>((E39-C39)*24)-1</f>
         <v>-1</v>
@@ -12940,8 +12968,12 @@
       <c r="B40" s="165">
         <v>25</v>
       </c>
-      <c r="C40" s="166"/>
-      <c r="E40" s="166"/>
+      <c r="C40" s="496" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E40" s="496" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G40" s="163">
         <f>((E40-C40)*24)-1</f>
         <v>-1</v>
@@ -12971,8 +13003,12 @@
       <c r="B43" s="165">
         <v>28</v>
       </c>
-      <c r="C43" s="166"/>
-      <c r="E43" s="166"/>
+      <c r="C43" s="496" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E43" s="496" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G43" s="163">
         <f>((E43-C43)*24)-1</f>
         <v>-1</v>
@@ -12982,8 +13018,12 @@
       <c r="B44" s="165">
         <v>29</v>
       </c>
-      <c r="C44" s="166"/>
-      <c r="E44" s="166"/>
+      <c r="C44" s="496" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E44" s="496" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G44" s="163">
         <f>((E44-C44)*24)-1</f>
         <v>-1</v>
@@ -12993,8 +13033,12 @@
       <c r="B45" s="165">
         <v>30</v>
       </c>
-      <c r="C45" s="166"/>
-      <c r="E45" s="166"/>
+      <c r="C45" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="163">
         <f>((E45-C45)*24)-1</f>
         <v>-1</v>
@@ -13004,8 +13048,12 @@
       <c r="B46" s="165">
         <v>31</v>
       </c>
-      <c r="C46" s="166"/>
-      <c r="E46" s="166"/>
+      <c r="C46" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="496" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G46" s="163">
         <f>((E46-C46)*24)-1</f>
         <v>-1</v>
@@ -13288,8 +13336,12 @@
       <c r="B16" s="190">
         <v>1</v>
       </c>
-      <c r="C16" s="191"/>
-      <c r="E16" s="191"/>
+      <c r="C16" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="188">
         <f>((E16-C16)*24)-1</f>
         <v>-1</v>
@@ -13319,8 +13371,12 @@
       <c r="B19" s="190">
         <v>4</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="E19" s="191"/>
+      <c r="C19" s="497" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E19" s="497" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G19" s="188">
         <f>((E19-C19)*24)-1</f>
         <v>-1</v>
@@ -13330,8 +13386,12 @@
       <c r="B20" s="190">
         <v>5</v>
       </c>
-      <c r="C20" s="191"/>
-      <c r="E20" s="191"/>
+      <c r="C20" s="497" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E20" s="497" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G20" s="188">
         <f>((E20-C20)*24)-1</f>
         <v>-1</v>
@@ -13341,8 +13401,12 @@
       <c r="B21" s="190">
         <v>6</v>
       </c>
-      <c r="C21" s="191"/>
-      <c r="E21" s="191"/>
+      <c r="C21" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="188">
         <f>((E21-C21)*24)-1</f>
         <v>-1</v>
@@ -13352,8 +13416,12 @@
       <c r="B22" s="190">
         <v>7</v>
       </c>
-      <c r="C22" s="191"/>
-      <c r="E22" s="191"/>
+      <c r="C22" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="188">
         <f>((E22-C22)*24)-1</f>
         <v>-1</v>
@@ -13363,8 +13431,12 @@
       <c r="B23" s="190">
         <v>8</v>
       </c>
-      <c r="C23" s="191"/>
-      <c r="E23" s="191"/>
+      <c r="C23" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="188">
         <f>((E23-C23)*24)-1</f>
         <v>-1</v>
@@ -13394,8 +13466,12 @@
       <c r="B26" s="190">
         <v>11</v>
       </c>
-      <c r="C26" s="191"/>
-      <c r="E26" s="191"/>
+      <c r="C26" s="497" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E26" s="497" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G26" s="188">
         <f>((E26-C26)*24)-1</f>
         <v>-1</v>
@@ -13405,8 +13481,12 @@
       <c r="B27" s="190">
         <v>12</v>
       </c>
-      <c r="C27" s="191"/>
-      <c r="E27" s="191"/>
+      <c r="C27" s="497" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E27" s="497" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G27" s="188">
         <f>((E27-C27)*24)-1</f>
         <v>-1</v>
@@ -13416,8 +13496,12 @@
       <c r="B28" s="190">
         <v>13</v>
       </c>
-      <c r="C28" s="191"/>
-      <c r="E28" s="191"/>
+      <c r="C28" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="188">
         <f>((E28-C28)*24)-1</f>
         <v>-1</v>
@@ -13477,19 +13561,26 @@
       <c r="B34" s="190">
         <v>19</v>
       </c>
-      <c r="C34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="G34" s="188">
-        <f>((E34-C34)*24)-1</f>
-        <v>-1</v>
+      <c r="C34" s="191" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="191" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="188" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="190">
         <v>20</v>
       </c>
-      <c r="C35" s="191"/>
-      <c r="E35" s="191"/>
+      <c r="C35" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="497" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G35" s="188">
         <f>((E35-C35)*24)-1</f>
         <v>-1</v>
@@ -13499,8 +13590,12 @@
       <c r="B36" s="190">
         <v>21</v>
       </c>
-      <c r="C36" s="191"/>
-      <c r="E36" s="191"/>
+      <c r="C36" s="497" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E36" s="497" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G36" s="188">
         <f>((E36-C36)*24)-1</f>
         <v>-1</v>
@@ -13510,8 +13605,12 @@
       <c r="B37" s="190">
         <v>22</v>
       </c>
-      <c r="C37" s="191"/>
-      <c r="E37" s="191"/>
+      <c r="C37" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="188">
         <f>((E37-C37)*24)-1</f>
         <v>-1</v>
@@ -13541,8 +13640,12 @@
       <c r="B40" s="190">
         <v>25</v>
       </c>
-      <c r="C40" s="191"/>
-      <c r="E40" s="191"/>
+      <c r="C40" s="497" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E40" s="497" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G40" s="188">
         <f>((E40-C40)*24)-1</f>
         <v>-1</v>
@@ -13552,8 +13655,12 @@
       <c r="B41" s="190">
         <v>26</v>
       </c>
-      <c r="C41" s="191"/>
-      <c r="E41" s="191"/>
+      <c r="C41" s="497" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E41" s="497" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G41" s="188">
         <f>((E41-C41)*24)-1</f>
         <v>-1</v>
@@ -13563,8 +13670,12 @@
       <c r="B42" s="190">
         <v>27</v>
       </c>
-      <c r="C42" s="191"/>
-      <c r="E42" s="191"/>
+      <c r="C42" s="497" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="497" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="188">
         <f>((E42-C42)*24)-1</f>
         <v>-1</v>
@@ -13574,8 +13685,12 @@
       <c r="B43" s="190">
         <v>28</v>
       </c>
-      <c r="C43" s="191"/>
-      <c r="E43" s="191"/>
+      <c r="C43" s="497" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E43" s="497" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G43" s="188">
         <f>((E43-C43)*24)-1</f>
         <v>-1</v>
@@ -13585,8 +13700,12 @@
       <c r="B44" s="190">
         <v>29</v>
       </c>
-      <c r="C44" s="191"/>
-      <c r="E44" s="191"/>
+      <c r="C44" s="497" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E44" s="497" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G44" s="188">
         <f>((E44-C44)*24)-1</f>
         <v>-1</v>
@@ -13894,8 +14013,12 @@
       <c r="B17" s="215">
         <v>2</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="E17" s="216"/>
+      <c r="C17" s="498" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E17" s="498" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G17" s="213">
         <f>((E17-C17)*24)-1</f>
         <v>-1</v>
@@ -13905,30 +14028,40 @@
       <c r="B18" s="215">
         <v>3</v>
       </c>
-      <c r="C18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="G18" s="213">
-        <f>((E18-C18)*24)-1</f>
-        <v>-1</v>
+      <c r="C18" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="213" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="215">
         <v>4</v>
       </c>
-      <c r="C19" s="216"/>
-      <c r="E19" s="216"/>
-      <c r="G19" s="213">
-        <f>((E19-C19)*24)-1</f>
-        <v>-1</v>
+      <c r="C19" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="213" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="215">
         <v>5</v>
       </c>
-      <c r="C20" s="216"/>
-      <c r="E20" s="216"/>
+      <c r="C20" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="213">
         <f>((E20-C20)*24)-1</f>
         <v>-1</v>
@@ -13938,8 +14071,12 @@
       <c r="B21" s="215">
         <v>6</v>
       </c>
-      <c r="C21" s="216"/>
-      <c r="E21" s="216"/>
+      <c r="C21" s="498" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E21" s="498" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G21" s="213">
         <f>((E21-C21)*24)-1</f>
         <v>-1</v>
@@ -13969,8 +14106,12 @@
       <c r="B24" s="215">
         <v>9</v>
       </c>
-      <c r="C24" s="216"/>
-      <c r="E24" s="216"/>
+      <c r="C24" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="213">
         <f>((E24-C24)*24)-1</f>
         <v>-1</v>
@@ -13980,8 +14121,12 @@
       <c r="B25" s="215">
         <v>10</v>
       </c>
-      <c r="C25" s="216"/>
-      <c r="E25" s="216"/>
+      <c r="C25" s="498" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="498" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G25" s="213">
         <f>((E25-C25)*24)-1</f>
         <v>-1</v>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="117">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -4692,7 +4692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="499">
+  <cellXfs count="502">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5835,6 +5835,15 @@
     </xf>
     <xf numFmtId="14" fontId="475" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -13148,6 +13157,7 @@
       <c r="H62" s="415"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13815,6 +13825,7 @@
       <c r="H62" s="423"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14013,10 +14024,10 @@
       <c r="B17" s="215">
         <v>2</v>
       </c>
-      <c r="C17" s="498" t="n">
+      <c r="C17" s="499" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E17" s="498" t="n">
+      <c r="E17" s="499" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G17" s="213">
@@ -14056,10 +14067,10 @@
       <c r="B20" s="215">
         <v>5</v>
       </c>
-      <c r="C20" s="498" t="n">
+      <c r="C20" s="499" t="n">
         <v>0.375</v>
       </c>
-      <c r="E20" s="498" t="n">
+      <c r="E20" s="499" t="n">
         <v>0.75</v>
       </c>
       <c r="G20" s="213">
@@ -14071,10 +14082,10 @@
       <c r="B21" s="215">
         <v>6</v>
       </c>
-      <c r="C21" s="498" t="n">
+      <c r="C21" s="499" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="E21" s="498" t="n">
+      <c r="E21" s="499" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="G21" s="213">
@@ -14106,10 +14117,10 @@
       <c r="B24" s="215">
         <v>9</v>
       </c>
-      <c r="C24" s="498" t="n">
+      <c r="C24" s="499" t="n">
         <v>0.375</v>
       </c>
-      <c r="E24" s="498" t="n">
+      <c r="E24" s="499" t="n">
         <v>0.75</v>
       </c>
       <c r="G24" s="213">
@@ -14121,10 +14132,10 @@
       <c r="B25" s="215">
         <v>10</v>
       </c>
-      <c r="C25" s="498" t="n">
+      <c r="C25" s="499" t="n">
         <v>0.375</v>
       </c>
-      <c r="E25" s="498" t="n">
+      <c r="E25" s="499" t="n">
         <v>0.75</v>
       </c>
       <c r="G25" s="213">
@@ -14136,8 +14147,12 @@
       <c r="B26" s="215">
         <v>11</v>
       </c>
-      <c r="C26" s="216"/>
-      <c r="E26" s="216"/>
+      <c r="C26" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="213">
         <f>((E26-C26)*24)-1</f>
         <v>-1</v>
@@ -14147,8 +14162,12 @@
       <c r="B27" s="215">
         <v>12</v>
       </c>
-      <c r="C27" s="216"/>
-      <c r="E27" s="216"/>
+      <c r="C27" s="499" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E27" s="499" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G27" s="213">
         <f>((E27-C27)*24)-1</f>
         <v>-1</v>
@@ -14158,8 +14177,12 @@
       <c r="B28" s="215">
         <v>13</v>
       </c>
-      <c r="C28" s="216"/>
-      <c r="E28" s="216"/>
+      <c r="C28" s="499" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E28" s="499" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G28" s="213">
         <f>((E28-C28)*24)-1</f>
         <v>-1</v>
@@ -14189,8 +14212,12 @@
       <c r="B31" s="215">
         <v>16</v>
       </c>
-      <c r="C31" s="216"/>
-      <c r="E31" s="216"/>
+      <c r="C31" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="213">
         <f>((E31-C31)*24)-1</f>
         <v>-1</v>
@@ -14200,8 +14227,12 @@
       <c r="B32" s="215">
         <v>17</v>
       </c>
-      <c r="C32" s="216"/>
-      <c r="E32" s="216"/>
+      <c r="C32" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="213">
         <f>((E32-C32)*24)-1</f>
         <v>-1</v>
@@ -14211,8 +14242,12 @@
       <c r="B33" s="215">
         <v>18</v>
       </c>
-      <c r="C33" s="216"/>
-      <c r="E33" s="216"/>
+      <c r="C33" s="499" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E33" s="499" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G33" s="213">
         <f>((E33-C33)*24)-1</f>
         <v>-1</v>
@@ -14222,8 +14257,12 @@
       <c r="B34" s="215">
         <v>19</v>
       </c>
-      <c r="C34" s="216"/>
-      <c r="E34" s="216"/>
+      <c r="C34" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="213">
         <f>((E34-C34)*24)-1</f>
         <v>-1</v>
@@ -14233,8 +14272,12 @@
       <c r="B35" s="215">
         <v>20</v>
       </c>
-      <c r="C35" s="216"/>
-      <c r="E35" s="216"/>
+      <c r="C35" s="499" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E35" s="499" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G35" s="213">
         <f>((E35-C35)*24)-1</f>
         <v>-1</v>
@@ -14264,8 +14307,12 @@
       <c r="B38" s="215">
         <v>23</v>
       </c>
-      <c r="C38" s="216"/>
-      <c r="E38" s="216"/>
+      <c r="C38" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="213">
         <f>((E38-C38)*24)-1</f>
         <v>-1</v>
@@ -14275,8 +14322,12 @@
       <c r="B39" s="215">
         <v>24</v>
       </c>
-      <c r="C39" s="216"/>
-      <c r="E39" s="216"/>
+      <c r="C39" s="499" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E39" s="499" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G39" s="213">
         <f>((E39-C39)*24)-1</f>
         <v>-1</v>
@@ -14286,8 +14337,12 @@
       <c r="B40" s="215">
         <v>25</v>
       </c>
-      <c r="C40" s="216"/>
-      <c r="E40" s="216"/>
+      <c r="C40" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="213">
         <f>((E40-C40)*24)-1</f>
         <v>-1</v>
@@ -14297,8 +14352,12 @@
       <c r="B41" s="215">
         <v>26</v>
       </c>
-      <c r="C41" s="216"/>
-      <c r="E41" s="216"/>
+      <c r="C41" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G41" s="213">
         <f>((E41-C41)*24)-1</f>
         <v>-1</v>
@@ -14308,8 +14367,12 @@
       <c r="B42" s="215">
         <v>27</v>
       </c>
-      <c r="C42" s="216"/>
-      <c r="E42" s="216"/>
+      <c r="C42" s="499" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E42" s="499" t="n">
+        <v>0.5208333333333334</v>
+      </c>
       <c r="G42" s="213">
         <f>((E42-C42)*24)-1</f>
         <v>-1</v>
@@ -14339,19 +14402,26 @@
       <c r="B45" s="215">
         <v>30</v>
       </c>
-      <c r="C45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="G45" s="213">
-        <f>((E45-C45)*24)-1</f>
-        <v>-1</v>
+      <c r="C45" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="216" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="213" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="215">
         <v>31</v>
       </c>
-      <c r="C46" s="216"/>
-      <c r="E46" s="216"/>
+      <c r="C46" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="499" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G46" s="213">
         <f>((E46-C46)*24)-1</f>
         <v>-1</v>
@@ -14446,6 +14516,7 @@
       <c r="H62" s="431"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14624,8 +14695,12 @@
       <c r="B16" s="239">
         <v>1</v>
       </c>
-      <c r="C16" s="240"/>
-      <c r="E16" s="240"/>
+      <c r="C16" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="237">
         <f>((E16-C16)*24)-1</f>
         <v>-1</v>
@@ -14635,8 +14710,12 @@
       <c r="B17" s="239">
         <v>2</v>
       </c>
-      <c r="C17" s="240"/>
-      <c r="E17" s="240"/>
+      <c r="C17" s="501" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E17" s="501" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G17" s="237">
         <f>((E17-C17)*24)-1</f>
         <v>-1</v>
@@ -14646,8 +14725,12 @@
       <c r="B18" s="239">
         <v>3</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="E18" s="240"/>
+      <c r="C18" s="501" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E18" s="501" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G18" s="237">
         <f>((E18-C18)*24)-1</f>
         <v>-1</v>
@@ -14677,8 +14760,12 @@
       <c r="B21" s="239">
         <v>6</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="E21" s="240"/>
+      <c r="C21" s="501" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E21" s="501" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G21" s="237">
         <f>((E21-C21)*24)-1</f>
         <v>-1</v>
@@ -14688,8 +14775,12 @@
       <c r="B22" s="239">
         <v>7</v>
       </c>
-      <c r="C22" s="240"/>
-      <c r="E22" s="240"/>
+      <c r="C22" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="237">
         <f>((E22-C22)*24)-1</f>
         <v>-1</v>
@@ -14699,8 +14790,12 @@
       <c r="B23" s="239">
         <v>8</v>
       </c>
-      <c r="C23" s="240"/>
-      <c r="E23" s="240"/>
+      <c r="C23" s="501" t="n">
+        <v>0.3715277777777778</v>
+      </c>
+      <c r="E23" s="501" t="n">
+        <v>0.7465277777777778</v>
+      </c>
       <c r="G23" s="237">
         <f>((E23-C23)*24)-1</f>
         <v>-1</v>
@@ -14710,8 +14805,12 @@
       <c r="B24" s="239">
         <v>9</v>
       </c>
-      <c r="C24" s="240"/>
-      <c r="E24" s="240"/>
+      <c r="C24" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G24" s="237">
         <f>((E24-C24)*24)-1</f>
         <v>-1</v>
@@ -14721,8 +14820,12 @@
       <c r="B25" s="239">
         <v>10</v>
       </c>
-      <c r="C25" s="240"/>
-      <c r="E25" s="240"/>
+      <c r="C25" s="501" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E25" s="501" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G25" s="237">
         <f>((E25-C25)*24)-1</f>
         <v>-1</v>
@@ -14752,8 +14855,12 @@
       <c r="B28" s="239">
         <v>13</v>
       </c>
-      <c r="C28" s="240"/>
-      <c r="E28" s="240"/>
+      <c r="C28" s="501" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E28" s="501" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G28" s="237">
         <f>((E28-C28)*24)-1</f>
         <v>-1</v>
@@ -14763,8 +14870,12 @@
       <c r="B29" s="239">
         <v>14</v>
       </c>
-      <c r="C29" s="240"/>
-      <c r="E29" s="240"/>
+      <c r="C29" s="501" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="E29" s="501" t="n">
+        <v>0.7430555555555556</v>
+      </c>
       <c r="G29" s="237">
         <f>((E29-C29)*24)-1</f>
         <v>-1</v>
@@ -14774,8 +14885,12 @@
       <c r="B30" s="239">
         <v>15</v>
       </c>
-      <c r="C30" s="240"/>
-      <c r="E30" s="240"/>
+      <c r="C30" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="237">
         <f>((E30-C30)*24)-1</f>
         <v>-1</v>
@@ -14785,8 +14900,12 @@
       <c r="B31" s="239">
         <v>16</v>
       </c>
-      <c r="C31" s="240"/>
-      <c r="E31" s="240"/>
+      <c r="C31" s="501" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="501" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G31" s="237">
         <f>((E31-C31)*24)-1</f>
         <v>-1</v>
@@ -14796,8 +14915,12 @@
       <c r="B32" s="239">
         <v>17</v>
       </c>
-      <c r="C32" s="240"/>
-      <c r="E32" s="240"/>
+      <c r="C32" s="501" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E32" s="501" t="n">
+        <v>0.7395833333333334</v>
+      </c>
       <c r="G32" s="237">
         <f>((E32-C32)*24)-1</f>
         <v>-1</v>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Alely Gessa.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="119">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,6 +378,15 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>medio dia</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="140">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1647,6 +1658,42 @@
     </xf>
     <xf borderId="31" fillId="15" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2255,20 +2302,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="2.71"/>
-    <col customWidth="1" min="10" max="16" width="6.71"/>
-    <col customWidth="1" min="17" max="17" width="2.71"/>
-    <col customWidth="1" min="18" max="24" width="6.71"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="5.71"/>
-    <col customWidth="1" min="27" max="29" width="25.0"/>
+    <col min="1" max="1" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.71" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5220,24 +5268,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -6717,24 +6766,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -8221,24 +8271,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -9716,24 +9767,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -11219,24 +11271,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -12803,6 +12856,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -12824,24 +12878,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -14391,6 +14446,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -14412,24 +14468,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -16005,6 +16062,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -16026,24 +16084,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -16202,10 +16261,10 @@
       <c r="B16" s="125">
         <v>1.0</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="133" t="n">
         <v>0.375</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="133" t="n">
         <v>0.75</v>
       </c>
       <c r="G16" s="110">
@@ -16237,10 +16296,10 @@
       <c r="B19" s="125">
         <v>4.0</v>
       </c>
-      <c r="C19" s="113">
+      <c r="C19" s="133" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E19" s="113">
+      <c r="E19" s="133" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G19" s="110">
@@ -16252,10 +16311,10 @@
       <c r="B20" s="125">
         <v>5.0</v>
       </c>
-      <c r="C20" s="113">
+      <c r="C20" s="133" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="133" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G20" s="110">
@@ -16267,10 +16326,10 @@
       <c r="B21" s="125">
         <v>6.0</v>
       </c>
-      <c r="C21" s="113">
+      <c r="C21" s="133" t="n">
         <v>0.375</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="133" t="n">
         <v>0.75</v>
       </c>
       <c r="G21" s="110">
@@ -16282,10 +16341,10 @@
       <c r="B22" s="125">
         <v>7.0</v>
       </c>
-      <c r="C22" s="113">
+      <c r="C22" s="133" t="n">
         <v>0.375</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="133" t="n">
         <v>0.75</v>
       </c>
       <c r="G22" s="110">
@@ -16297,10 +16356,10 @@
       <c r="B23" s="125">
         <v>8.0</v>
       </c>
-      <c r="C23" s="113">
+      <c r="C23" s="133" t="n">
         <v>0.375</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23" s="133" t="n">
         <v>0.75</v>
       </c>
       <c r="G23" s="110">
@@ -16332,10 +16391,10 @@
       <c r="B26" s="125">
         <v>11.0</v>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="133" t="n">
         <v>0.3680555555555556</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="133" t="n">
         <v>0.7430555555555556</v>
       </c>
       <c r="G26" s="110">
@@ -16347,10 +16406,10 @@
       <c r="B27" s="125">
         <v>12.0</v>
       </c>
-      <c r="C27" s="113">
+      <c r="C27" s="133" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E27" s="113">
+      <c r="E27" s="133" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G27" s="110">
@@ -16362,10 +16421,10 @@
       <c r="B28" s="125">
         <v>13.0</v>
       </c>
-      <c r="C28" s="113">
+      <c r="C28" s="133" t="n">
         <v>0.375</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="133" t="n">
         <v>0.75</v>
       </c>
       <c r="G28" s="110">
@@ -16441,29 +16500,28 @@
       <c r="B35" s="125">
         <v>20.0</v>
       </c>
-      <c r="C35" s="113">
-        <v>0.375</v>
-      </c>
-      <c r="E35" s="113">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="G35" s="110">
-        <f t="shared" ref="G35:G37" si="3">IF((E35-C35)*24&lt;=4,(E35-C35)*24,(E35-C35)*24-1)</f>
-        <v>4</v>
+      <c r="C35" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="110" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="B36" s="125">
         <v>21.0</v>
       </c>
-      <c r="C36" s="113">
+      <c r="C36" s="133" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E36" s="113">
+      <c r="E36" s="133" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G36" s="110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3" ref="G36:G37">IF((E36-C36)*24&lt;=4,(E36-C36)*24,(E36-C36)*24-1)</f>
         <v>8</v>
       </c>
     </row>
@@ -16471,10 +16529,10 @@
       <c r="B37" s="125">
         <v>22.0</v>
       </c>
-      <c r="C37" s="113">
+      <c r="C37" s="133" t="n">
         <v>0.375</v>
       </c>
-      <c r="E37" s="113">
+      <c r="E37" s="133" t="n">
         <v>0.75</v>
       </c>
       <c r="G37" s="110">
@@ -16506,10 +16564,10 @@
       <c r="B40" s="125">
         <v>25.0</v>
       </c>
-      <c r="C40" s="113">
+      <c r="C40" s="133" t="n">
         <v>0.3680555555555556</v>
       </c>
-      <c r="E40" s="113">
+      <c r="E40" s="133" t="n">
         <v>0.7430555555555556</v>
       </c>
       <c r="G40" s="110">
@@ -16521,10 +16579,10 @@
       <c r="B41" s="125">
         <v>26.0</v>
       </c>
-      <c r="C41" s="113">
+      <c r="C41" s="133" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="E41" s="113">
+      <c r="E41" s="133" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="G41" s="110">
@@ -16536,10 +16594,10 @@
       <c r="B42" s="125">
         <v>27.0</v>
       </c>
-      <c r="C42" s="113">
+      <c r="C42" s="133" t="n">
         <v>0.375</v>
       </c>
-      <c r="E42" s="113">
+      <c r="E42" s="133" t="n">
         <v>0.75</v>
       </c>
       <c r="G42" s="110">
@@ -16551,10 +16609,10 @@
       <c r="B43" s="125">
         <v>28.0</v>
       </c>
-      <c r="C43" s="113">
+      <c r="C43" s="133" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E43" s="113">
+      <c r="E43" s="133" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G43" s="110">
@@ -16566,10 +16624,10 @@
       <c r="B44" s="125">
         <v>29.0</v>
       </c>
-      <c r="C44" s="113">
+      <c r="C44" s="133" t="n">
         <v>0.3680555555555556</v>
       </c>
-      <c r="E44" s="113">
+      <c r="E44" s="133" t="n">
         <v>0.7430555555555556</v>
       </c>
       <c r="G44" s="110">
@@ -17588,6 +17646,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -17609,24 +17668,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -17795,10 +17855,10 @@
       <c r="B17" s="125">
         <v>2.0</v>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="139" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="139" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G17" s="110">
@@ -17838,10 +17898,10 @@
       <c r="B20" s="125">
         <v>5.0</v>
       </c>
-      <c r="C20" s="113">
+      <c r="C20" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G20" s="110">
@@ -17853,10 +17913,10 @@
       <c r="B21" s="125">
         <v>6.0</v>
       </c>
-      <c r="C21" s="113">
+      <c r="C21" s="139" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="139" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="G21" s="110">
@@ -17888,10 +17948,10 @@
       <c r="B24" s="125">
         <v>9.0</v>
       </c>
-      <c r="C24" s="113">
+      <c r="C24" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G24" s="110">
@@ -17903,10 +17963,10 @@
       <c r="B25" s="125">
         <v>10.0</v>
       </c>
-      <c r="C25" s="113">
+      <c r="C25" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E25" s="113">
+      <c r="E25" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G25" s="110">
@@ -17918,10 +17978,10 @@
       <c r="B26" s="125">
         <v>11.0</v>
       </c>
-      <c r="C26" s="113">
+      <c r="C26" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E26" s="113">
+      <c r="E26" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G26" s="110">
@@ -17933,10 +17993,10 @@
       <c r="B27" s="125">
         <v>12.0</v>
       </c>
-      <c r="C27" s="113">
+      <c r="C27" s="139" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E27" s="113">
+      <c r="E27" s="139" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G27" s="110">
@@ -17948,10 +18008,10 @@
       <c r="B28" s="125">
         <v>13.0</v>
       </c>
-      <c r="C28" s="113">
+      <c r="C28" s="139" t="n">
         <v>0.3680555555555556</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="139" t="n">
         <v>0.7430555555555556</v>
       </c>
       <c r="G28" s="110">
@@ -17983,10 +18043,10 @@
       <c r="B31" s="125">
         <v>16.0</v>
       </c>
-      <c r="C31" s="113">
+      <c r="C31" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E31" s="113">
+      <c r="E31" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G31" s="110">
@@ -17998,10 +18058,10 @@
       <c r="B32" s="125">
         <v>17.0</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E32" s="113">
+      <c r="E32" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G32" s="110">
@@ -18013,10 +18073,10 @@
       <c r="B33" s="125">
         <v>18.0</v>
       </c>
-      <c r="C33" s="113">
+      <c r="C33" s="139" t="n">
         <v>0.3680555555555556</v>
       </c>
-      <c r="E33" s="113">
+      <c r="E33" s="139" t="n">
         <v>0.7430555555555556</v>
       </c>
       <c r="G33" s="110">
@@ -18028,10 +18088,10 @@
       <c r="B34" s="125">
         <v>19.0</v>
       </c>
-      <c r="C34" s="113">
+      <c r="C34" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E34" s="113">
+      <c r="E34" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G34" s="110">
@@ -18043,10 +18103,10 @@
       <c r="B35" s="125">
         <v>20.0</v>
       </c>
-      <c r="C35" s="113">
+      <c r="C35" s="139" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="E35" s="113">
+      <c r="E35" s="139" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="G35" s="110">
@@ -18078,10 +18138,10 @@
       <c r="B38" s="125">
         <v>23.0</v>
       </c>
-      <c r="C38" s="113">
+      <c r="C38" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E38" s="113">
+      <c r="E38" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G38" s="110">
@@ -18093,10 +18153,10 @@
       <c r="B39" s="125">
         <v>24.0</v>
       </c>
-      <c r="C39" s="113">
+      <c r="C39" s="139" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E39" s="113">
+      <c r="E39" s="139" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G39" s="110">
@@ -18108,10 +18168,10 @@
       <c r="B40" s="125">
         <v>25.0</v>
       </c>
-      <c r="C40" s="113">
+      <c r="C40" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E40" s="113">
+      <c r="E40" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G40" s="110">
@@ -18123,10 +18183,10 @@
       <c r="B41" s="125">
         <v>26.0</v>
       </c>
-      <c r="C41" s="113">
+      <c r="C41" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E41" s="113">
+      <c r="E41" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G41" s="110">
@@ -18138,15 +18198,14 @@
       <c r="B42" s="125">
         <v>27.0</v>
       </c>
-      <c r="C42" s="113">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="E42" s="113">
-        <v>0.5208333333333334</v>
-      </c>
-      <c r="G42" s="110">
-        <f t="shared" si="4"/>
-        <v>4</v>
+      <c r="C42" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="110" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
@@ -18187,10 +18246,10 @@
       <c r="B46" s="125">
         <v>31.0</v>
       </c>
-      <c r="C46" s="113">
+      <c r="C46" s="139" t="n">
         <v>0.375</v>
       </c>
-      <c r="E46" s="113">
+      <c r="E46" s="139" t="n">
         <v>0.75</v>
       </c>
       <c r="G46" s="110">
@@ -19194,6 +19253,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -19215,24 +19275,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -19380,10 +19441,10 @@
       <c r="B16" s="125">
         <v>1.0</v>
       </c>
-      <c r="C16" s="113">
+      <c r="C16" s="136" t="n">
         <v>0.375</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="136" t="n">
         <v>0.75</v>
       </c>
       <c r="G16" s="110">
@@ -19395,10 +19456,10 @@
       <c r="B17" s="125">
         <v>2.0</v>
       </c>
-      <c r="C17" s="113">
+      <c r="C17" s="136" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E17" s="113">
+      <c r="E17" s="136" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G17" s="110">
@@ -19410,10 +19471,10 @@
       <c r="B18" s="125">
         <v>3.0</v>
       </c>
-      <c r="C18" s="113">
+      <c r="C18" s="136" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="136" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="G18" s="110">
@@ -19445,10 +19506,10 @@
       <c r="B21" s="125">
         <v>6.0</v>
       </c>
-      <c r="C21" s="113">
+      <c r="C21" s="136" t="n">
         <v>0.3680555555555556</v>
       </c>
-      <c r="E21" s="113">
+      <c r="E21" s="136" t="n">
         <v>0.7430555555555556</v>
       </c>
       <c r="G21" s="110">
@@ -19460,10 +19521,10 @@
       <c r="B22" s="125">
         <v>7.0</v>
       </c>
-      <c r="C22" s="113">
+      <c r="C22" s="136" t="n">
         <v>0.375</v>
       </c>
-      <c r="E22" s="113">
+      <c r="E22" s="136" t="n">
         <v>0.75</v>
       </c>
       <c r="G22" s="110">
@@ -19475,10 +19536,10 @@
       <c r="B23" s="125">
         <v>8.0</v>
       </c>
-      <c r="C23" s="113">
+      <c r="C23" s="136" t="n">
         <v>0.3715277777777778</v>
       </c>
-      <c r="E23" s="113">
+      <c r="E23" s="136" t="n">
         <v>0.7465277777777778</v>
       </c>
       <c r="G23" s="110">
@@ -19490,10 +19551,10 @@
       <c r="B24" s="125">
         <v>9.0</v>
       </c>
-      <c r="C24" s="113">
+      <c r="C24" s="136" t="n">
         <v>0.375</v>
       </c>
-      <c r="E24" s="113">
+      <c r="E24" s="136" t="n">
         <v>0.75</v>
       </c>
       <c r="G24" s="110">
@@ -19505,10 +19566,10 @@
       <c r="B25" s="125">
         <v>10.0</v>
       </c>
-      <c r="C25" s="113">
+      <c r="C25" s="136" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="E25" s="113">
+      <c r="E25" s="136" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="G25" s="110">
@@ -19540,10 +19601,10 @@
       <c r="B28" s="125">
         <v>13.0</v>
       </c>
-      <c r="C28" s="113">
+      <c r="C28" s="136" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E28" s="113">
+      <c r="E28" s="136" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G28" s="110">
@@ -19555,10 +19616,10 @@
       <c r="B29" s="125">
         <v>14.0</v>
       </c>
-      <c r="C29" s="113">
+      <c r="C29" s="136" t="n">
         <v>0.3680555555555556</v>
       </c>
-      <c r="E29" s="113">
+      <c r="E29" s="136" t="n">
         <v>0.7430555555555556</v>
       </c>
       <c r="G29" s="110">
@@ -19570,10 +19631,10 @@
       <c r="B30" s="125">
         <v>15.0</v>
       </c>
-      <c r="C30" s="113">
+      <c r="C30" s="136" t="n">
         <v>0.375</v>
       </c>
-      <c r="E30" s="113">
+      <c r="E30" s="136" t="n">
         <v>0.75</v>
       </c>
       <c r="G30" s="110">
@@ -19585,10 +19646,10 @@
       <c r="B31" s="125">
         <v>16.0</v>
       </c>
-      <c r="C31" s="113">
+      <c r="C31" s="136" t="n">
         <v>0.375</v>
       </c>
-      <c r="E31" s="113">
+      <c r="E31" s="136" t="n">
         <v>0.75</v>
       </c>
       <c r="G31" s="110">
@@ -19600,10 +19661,10 @@
       <c r="B32" s="125">
         <v>17.0</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="136" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="E32" s="113">
+      <c r="E32" s="136" t="n">
         <v>0.7395833333333334</v>
       </c>
       <c r="G32" s="110">
@@ -19635,8 +19696,12 @@
       <c r="B35" s="125">
         <v>20.0</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="E35" s="126"/>
+      <c r="C35" s="136" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="136" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="110">
         <f t="shared" ref="G35:G39" si="4">IF((E35-C35)*24&lt;=4,(E35-C35)*24,(E35-C35)*24-1)</f>
         <v>0</v>
@@ -19646,8 +19711,12 @@
       <c r="B36" s="125">
         <v>21.0</v>
       </c>
-      <c r="C36" s="126"/>
-      <c r="E36" s="126"/>
+      <c r="C36" s="136" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="136" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -19657,8 +19726,12 @@
       <c r="B37" s="125">
         <v>22.0</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="E37" s="126"/>
+      <c r="C37" s="136" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="136" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -19668,8 +19741,12 @@
       <c r="B38" s="125">
         <v>23.0</v>
       </c>
-      <c r="C38" s="126"/>
-      <c r="E38" s="126"/>
+      <c r="C38" s="136" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="136" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -19679,8 +19756,12 @@
       <c r="B39" s="125">
         <v>24.0</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="E39" s="126"/>
+      <c r="C39" s="136" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="136" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G39" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -19710,8 +19791,12 @@
       <c r="B42" s="125">
         <v>27.0</v>
       </c>
-      <c r="C42" s="126"/>
-      <c r="E42" s="126"/>
+      <c r="C42" s="136" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="136" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="110">
         <f t="shared" ref="G42:G45" si="5">IF((E42-C42)*24&lt;=4,(E42-C42)*24,(E42-C42)*24-1)</f>
         <v>0</v>
@@ -19721,8 +19806,12 @@
       <c r="B43" s="125">
         <v>28.0</v>
       </c>
-      <c r="C43" s="126"/>
-      <c r="E43" s="126"/>
+      <c r="C43" s="136" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="136" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -19732,8 +19821,12 @@
       <c r="B44" s="125">
         <v>29.0</v>
       </c>
-      <c r="C44" s="126"/>
-      <c r="E44" s="126"/>
+      <c r="C44" s="136" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="136" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G44" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -19743,8 +19836,12 @@
       <c r="B45" s="125">
         <v>30.0</v>
       </c>
-      <c r="C45" s="126"/>
-      <c r="E45" s="126"/>
+      <c r="C45" s="136" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="136" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G45" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -20747,6 +20844,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -20768,24 +20866,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -20929,8 +21028,12 @@
       <c r="B16" s="125">
         <v>1.0</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="E16" s="126"/>
+      <c r="C16" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="110">
         <f>IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -20960,8 +21063,12 @@
       <c r="B19" s="125">
         <v>4.0</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="E19" s="126"/>
+      <c r="C19" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G19" s="110">
         <f t="shared" ref="G19:G23" si="1">IF((E19-C19)*24&lt;=4,(E19-C19)*24,(E19-C19)*24-1)</f>
         <v>0</v>
@@ -20971,8 +21078,12 @@
       <c r="B20" s="125">
         <v>5.0</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="E20" s="126"/>
+      <c r="C20" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G20" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20982,8 +21093,12 @@
       <c r="B21" s="125">
         <v>6.0</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="E21" s="126"/>
+      <c r="C21" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G21" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20993,8 +21108,12 @@
       <c r="B22" s="125">
         <v>7.0</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="E22" s="126"/>
+      <c r="C22" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G22" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21004,8 +21123,12 @@
       <c r="B23" s="125">
         <v>8.0</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="E23" s="126"/>
+      <c r="C23" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G23" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21035,8 +21158,12 @@
       <c r="B26" s="125">
         <v>11.0</v>
       </c>
-      <c r="C26" s="126"/>
-      <c r="E26" s="126"/>
+      <c r="C26" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="110">
         <f t="shared" ref="G26:G30" si="2">IF((E26-C26)*24&lt;=4,(E26-C26)*24,(E26-C26)*24-1)</f>
         <v>0</v>
@@ -21046,8 +21173,12 @@
       <c r="B27" s="125">
         <v>12.0</v>
       </c>
-      <c r="C27" s="126"/>
-      <c r="E27" s="126"/>
+      <c r="C27" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G27" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21057,8 +21188,12 @@
       <c r="B28" s="125">
         <v>13.0</v>
       </c>
-      <c r="C28" s="126"/>
-      <c r="E28" s="126"/>
+      <c r="C28" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21068,8 +21203,12 @@
       <c r="B29" s="125">
         <v>14.0</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="E29" s="126"/>
+      <c r="C29" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G29" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21079,8 +21218,12 @@
       <c r="B30" s="125">
         <v>15.0</v>
       </c>
-      <c r="C30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="C30" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G30" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21110,8 +21253,12 @@
       <c r="B33" s="125">
         <v>18.0</v>
       </c>
-      <c r="C33" s="126"/>
-      <c r="E33" s="126"/>
+      <c r="C33" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="110">
         <f t="shared" ref="G33:G37" si="3">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
         <v>0</v>
@@ -21121,8 +21268,12 @@
       <c r="B34" s="125">
         <v>19.0</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="E34" s="126"/>
+      <c r="C34" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G34" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21132,8 +21283,12 @@
       <c r="B35" s="125">
         <v>20.0</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="E35" s="126"/>
+      <c r="C35" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21143,8 +21298,12 @@
       <c r="B36" s="125">
         <v>21.0</v>
       </c>
-      <c r="C36" s="126"/>
-      <c r="E36" s="126"/>
+      <c r="C36" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G36" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21154,8 +21313,12 @@
       <c r="B37" s="125">
         <v>22.0</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="E37" s="126"/>
+      <c r="C37" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="131" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G37" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21195,44 +21358,56 @@
       <c r="B41" s="125">
         <v>26.0</v>
       </c>
-      <c r="C41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="G41" s="110">
-        <f t="shared" ref="G41:G44" si="4">IF((E41-C41)*24&lt;=4,(E41-C41)*24,(E41-C41)*24-1)</f>
-        <v>0</v>
+      <c r="C41" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="131" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G41" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="B42" s="125">
         <v>27.0</v>
       </c>
-      <c r="C42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="G42" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C42" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="B43" s="125">
         <v>28.0</v>
       </c>
-      <c r="C43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="G43" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C43" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="B44" s="125">
         <v>29.0</v>
       </c>
-      <c r="C44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="G44" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C44" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
@@ -22251,6 +22426,7 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -22272,24 +22448,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.86"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.86" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -22433,55 +22610,70 @@
       <c r="B16" s="125">
         <v>1.0</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="G16" s="110">
-        <f t="shared" ref="G16:G20" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="125">
         <v>2.0</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="G17" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C17" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="125">
         <v>3.0</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="G18" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C18" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="125">
         <v>4.0</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="G19" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C19" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="125">
         <v>5.0</v>
       </c>
-      <c r="C20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="G20" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C20" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -22593,44 +22785,56 @@
       <c r="B31" s="125">
         <v>16.0</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="G31" s="110">
-        <f t="shared" ref="G31:G34" si="3">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="125">
         <v>17.0</v>
       </c>
-      <c r="C32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="G32" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C32" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="125">
         <v>18.0</v>
       </c>
-      <c r="C33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="G33" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C33" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="125">
         <v>19.0</v>
       </c>
-      <c r="C34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="G34" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C34" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
